--- a/Management/PRODUCTION/Production_Task_2017NOV09.xlsx
+++ b/Management/PRODUCTION/Production_Task_2017NOV09.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repositories\GDC2017Project\Management\PRODUCTION\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="25920" windowHeight="8775"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="20730" windowHeight="8775" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Production Backlog Form" sheetId="1" r:id="rId1"/>
@@ -18,13 +13,13 @@
     <sheet name="Sprint #3 Backlog" sheetId="8" r:id="rId4"/>
     <sheet name="Sprint #4 Backlog" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="176">
   <si>
     <t>Production Task Chart</t>
   </si>
@@ -134,9 +129,6 @@
     <t>Feature</t>
   </si>
   <si>
-    <t>Story, Programming, Art, Level Design, or Sound</t>
-  </si>
-  <si>
     <t>Sprint #1 Backlog</t>
   </si>
   <si>
@@ -549,12 +541,18 @@
   </si>
   <si>
     <t>2017DEC07</t>
+  </si>
+  <si>
+    <t>Programming</t>
+  </si>
+  <si>
+    <t>ALL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -990,24 +988,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1032,10 +1012,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1070,24 +1086,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1278,7 +1276,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1349,7 +1347,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EF0D-4069-B25D-613773EB085E}"/>
             </c:ext>
@@ -1407,7 +1405,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-EF0D-4069-B25D-613773EB085E}"/>
             </c:ext>
@@ -1423,11 +1421,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1109563408"/>
-        <c:axId val="584994656"/>
+        <c:axId val="192996352"/>
+        <c:axId val="168745728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1109563408"/>
+        <c:axId val="192996352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1459,6 +1457,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1467,26 +1466,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1524,7 +1503,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584994656"/>
+        <c:crossAx val="168745728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1532,7 +1511,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="584994656"/>
+        <c:axId val="168745728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1578,6 +1557,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1586,26 +1566,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1638,7 +1598,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1109563408"/>
+        <c:crossAx val="192996352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1652,6 +1612,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1683,14 +1644,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1726,7 +1687,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1785,28 +1746,28 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C612-40A7-9F96-EB4D93577D25}"/>
             </c:ext>
@@ -1873,7 +1834,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C612-40A7-9F96-EB4D93577D25}"/>
             </c:ext>
@@ -1889,11 +1850,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1113718480"/>
-        <c:axId val="1206953824"/>
+        <c:axId val="193675776"/>
+        <c:axId val="193462848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1113718480"/>
+        <c:axId val="193675776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1925,6 +1886,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1933,26 +1895,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1990,7 +1932,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1206953824"/>
+        <c:crossAx val="193462848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1998,7 +1940,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1206953824"/>
+        <c:axId val="193462848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2044,6 +1986,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2052,26 +1995,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2104,7 +2027,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1113718480"/>
+        <c:crossAx val="193675776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2118,6 +2041,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2149,14 +2073,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2192,7 +2116,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2272,7 +2196,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4E52-438F-B18A-86E2B7D84A8A}"/>
             </c:ext>
@@ -2339,7 +2263,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4E52-438F-B18A-86E2B7D84A8A}"/>
             </c:ext>
@@ -2355,11 +2279,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1113718480"/>
-        <c:axId val="1206953824"/>
+        <c:axId val="193678336"/>
+        <c:axId val="193464576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1113718480"/>
+        <c:axId val="193678336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2391,6 +2315,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2399,26 +2324,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2456,7 +2361,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1206953824"/>
+        <c:crossAx val="193464576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2464,7 +2369,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1206953824"/>
+        <c:axId val="193464576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2510,6 +2415,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2518,26 +2424,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2570,7 +2456,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1113718480"/>
+        <c:crossAx val="193678336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2584,6 +2470,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2615,14 +2502,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2658,7 +2545,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2738,7 +2625,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0FBD-43AF-9F67-32392220AF80}"/>
             </c:ext>
@@ -2805,7 +2692,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0FBD-43AF-9F67-32392220AF80}"/>
             </c:ext>
@@ -2821,11 +2708,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1113718480"/>
-        <c:axId val="1206953824"/>
+        <c:axId val="193731072"/>
+        <c:axId val="193466304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1113718480"/>
+        <c:axId val="193731072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2865,26 +2752,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2922,7 +2789,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1206953824"/>
+        <c:crossAx val="193466304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2930,7 +2797,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1206953824"/>
+        <c:axId val="193466304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2984,26 +2851,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3036,7 +2883,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1113718480"/>
+        <c:crossAx val="193731072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3081,14 +2928,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3124,7 +2971,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3204,7 +3051,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D138-4731-867F-4F3C69710087}"/>
             </c:ext>
@@ -3271,7 +3118,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D138-4731-867F-4F3C69710087}"/>
             </c:ext>
@@ -3287,11 +3134,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1113718480"/>
-        <c:axId val="1206953824"/>
+        <c:axId val="194295296"/>
+        <c:axId val="193468032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1113718480"/>
+        <c:axId val="194295296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3331,26 +3178,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3388,7 +3215,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1206953824"/>
+        <c:crossAx val="193468032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3396,7 +3223,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1206953824"/>
+        <c:axId val="193468032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3450,26 +3277,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3502,7 +3309,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1113718480"/>
+        <c:crossAx val="194295296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3547,14 +3354,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6324,7 +6131,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{195A0F04-AE03-4B91-8B8F-171802523C49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{195A0F04-AE03-4B91-8B8F-171802523C49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6365,7 +6172,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C031D55E-2B68-4B87-A1AD-203FDFD95A40}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C031D55E-2B68-4B87-A1AD-203FDFD95A40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6406,7 +6213,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0A947F4-F41D-4419-8750-C2850F5873A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E0A947F4-F41D-4419-8750-C2850F5873A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6449,7 +6256,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6257F7BD-97DE-4834-AE08-9D8AF110B902}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6257F7BD-97DE-4834-AE08-9D8AF110B902}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6492,7 +6299,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76C49400-69A8-4DAA-87EA-A71BEE27AB1F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{76C49400-69A8-4DAA-87EA-A71BEE27AB1F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6558,7 +6365,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6591,26 +6398,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6643,23 +6433,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6838,8 +6611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6873,20 +6646,20 @@
       <c r="N1" s="18"/>
     </row>
     <row r="2" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="58"/>
       <c r="N2" s="18"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
@@ -6909,36 +6682,36 @@
       <c r="N3" s="18"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="47" t="s">
+      <c r="C4" s="38"/>
+      <c r="D4" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="48"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="19"/>
-      <c r="H4" s="40" t="s">
+      <c r="H4" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="42"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
       <c r="N4" s="18"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="48"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="19"/>
       <c r="H5" s="8" t="s">
         <v>26</v>
@@ -6961,30 +6734,30 @@
       <c r="N5" s="18"/>
     </row>
     <row r="6" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="50"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="43"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="19"/>
       <c r="H6" s="16">
         <v>1</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>32</v>
       </c>
       <c r="K6" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="M6" s="10" t="s">
         <v>34</v>
@@ -7004,16 +6777,16 @@
         <v>2</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>32</v>
       </c>
       <c r="K7" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="M7" s="10" t="s">
         <v>34</v>
@@ -7021,30 +6794,30 @@
       <c r="N7" s="18"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" s="41"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="19"/>
       <c r="H8" s="16">
         <v>3</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>32</v>
       </c>
       <c r="K8" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="M8" s="10" t="s">
         <v>34</v>
@@ -7052,30 +6825,30 @@
       <c r="N8" s="18"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="47"/>
-      <c r="F9" s="48"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="41"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="19"/>
       <c r="H9" s="16">
         <v>4</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>32</v>
       </c>
       <c r="K9" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="L9" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="M9" s="10" t="s">
         <v>34</v>
@@ -7083,64 +6856,64 @@
       <c r="N9" s="18"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="47"/>
-      <c r="F10" s="48"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="41"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="19"/>
       <c r="H10" s="16">
         <v>5</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>32</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N10" s="18"/>
     </row>
     <row r="11" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="50"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="43"/>
+      <c r="F11" s="44"/>
       <c r="G11" s="19"/>
       <c r="H11" s="16">
         <v>6</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>32</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N11" s="18"/>
     </row>
@@ -7157,19 +6930,19 @@
         <v>7</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>32</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N12" s="18"/>
     </row>
@@ -7192,19 +6965,19 @@
         <v>8</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>32</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N13" s="18"/>
     </row>
@@ -7213,13 +6986,13 @@
         <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>31</v>
@@ -7240,13 +7013,13 @@
         <v>2</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="E15" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="19"/>
@@ -7265,24 +7038,24 @@
         <v>3</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="E16" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="19"/>
-      <c r="H16" s="40" t="s">
+      <c r="H16" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="42"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="47"/>
       <c r="N16" s="18"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
@@ -7290,13 +7063,13 @@
         <v>4</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="E17" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="19"/>
@@ -7325,13 +7098,13 @@
         <v>5</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="E18" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="19"/>
@@ -7339,19 +7112,19 @@
         <v>1</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>32</v>
       </c>
       <c r="K18" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="L18" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="L18" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="M18" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N18" s="18"/>
     </row>
@@ -7360,13 +7133,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="E19" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="19"/>
@@ -7374,19 +7147,19 @@
         <v>2</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>32</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N19" s="18"/>
     </row>
@@ -7403,19 +7176,19 @@
         <v>3</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>32</v>
       </c>
       <c r="K20" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="M20" s="10" t="s">
         <v>164</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="M20" s="10" t="s">
-        <v>165</v>
       </c>
       <c r="N20" s="18"/>
     </row>
@@ -7432,19 +7205,19 @@
         <v>4</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>32</v>
       </c>
       <c r="K21" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="L21" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="M21" s="10" t="s">
         <v>168</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="N21" s="18"/>
     </row>
@@ -7506,13 +7279,13 @@
       <c r="N24" s="18"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B25" s="64" t="s">
-        <v>170</v>
-      </c>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="66"/>
+      <c r="B25" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="50"/>
       <c r="G25" s="19"/>
       <c r="H25" s="16">
         <v>8</v>
@@ -7525,11 +7298,11 @@
       <c r="N25" s="18"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B26" s="64"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="66"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="19"/>
       <c r="H26" s="16">
         <v>9</v>
@@ -7542,11 +7315,11 @@
       <c r="N26" s="18"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B27" s="64"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="66"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
       <c r="G27" s="19"/>
       <c r="H27" s="16">
         <v>10</v>
@@ -7559,28 +7332,28 @@
       <c r="N27" s="18"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B28" s="64"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="66"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="50"/>
       <c r="G28" s="19"/>
-      <c r="H28" s="40" t="s">
+      <c r="H28" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="42"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="47"/>
       <c r="N28" s="18"/>
     </row>
     <row r="29" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="67"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="69"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="53"/>
       <c r="G29" s="19"/>
       <c r="H29" s="8" t="s">
         <v>26</v>
@@ -7622,10 +7395,10 @@
       <c r="N30" s="18"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B31" s="51" t="s">
+      <c r="B31" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="52"/>
+      <c r="C31" s="55"/>
       <c r="D31" s="4">
         <f>SUM(D34,D37,D40,D43)</f>
         <v>12</v>
@@ -7650,13 +7423,13 @@
       <c r="N31" s="18"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="42"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="47"/>
       <c r="G32" s="19"/>
       <c r="H32" s="16">
         <v>3</v>
@@ -7673,7 +7446,7 @@
         <v>17</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>22</v>
@@ -7700,7 +7473,7 @@
         <v>18</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D34" s="4">
         <f>COUNTA(I6:I15)</f>
@@ -7726,13 +7499,13 @@
       <c r="N34" s="18"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="42"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="47"/>
       <c r="G35" s="19"/>
       <c r="H35" s="16">
         <v>6</v>
@@ -7749,7 +7522,7 @@
         <v>17</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>22</v>
@@ -7776,7 +7549,7 @@
         <v>18</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D37" s="4">
         <f>COUNTA(I18:I27)</f>
@@ -7802,13 +7575,13 @@
       <c r="N37" s="18"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="42"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="47"/>
       <c r="G38" s="19"/>
       <c r="H38" s="16">
         <v>9</v>
@@ -7825,7 +7598,7 @@
         <v>17</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>22</v>
@@ -7852,7 +7625,7 @@
         <v>18</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D40" s="4">
         <f>COUNTA(I30:I39)</f>
@@ -7867,24 +7640,24 @@
         <v>0</v>
       </c>
       <c r="G40" s="19"/>
-      <c r="H40" s="40" t="s">
+      <c r="H40" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="42"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="47"/>
       <c r="N40" s="18"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B41" s="40" t="s">
+      <c r="B41" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="42"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="47"/>
       <c r="G41" s="19"/>
       <c r="H41" s="8" t="s">
         <v>26</v>
@@ -7911,7 +7684,7 @@
         <v>17</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>22</v>
@@ -7938,7 +7711,7 @@
         <v>18</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D43" s="12">
         <f>COUNTA(I42:I51)</f>
@@ -8151,21 +7924,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B31:C31"/>
     <mergeCell ref="H3:M3"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="H40:M40"/>
@@ -8182,6 +7940,21 @@
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="D11:F11"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
   </mergeCells>
   <conditionalFormatting sqref="E14:E23">
     <cfRule type="duplicateValues" dxfId="16" priority="5"/>
@@ -8212,8 +7985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N119"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="E8" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8243,26 +8016,26 @@
     </row>
     <row r="2" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
-      <c r="B2" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="59"/>
+      <c r="B2" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="65"/>
       <c r="N2" s="18"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
       <c r="B3" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="36"/>
       <c r="D3" s="18"/>
@@ -8280,10 +8053,10 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
       <c r="B4" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
@@ -8300,10 +8073,10 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
       <c r="B5" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -8320,10 +8093,10 @@
     <row r="6" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="18"/>
@@ -8340,7 +8113,7 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
       <c r="B7" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
@@ -8358,22 +8131,22 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="18"/>
       <c r="B8" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="D8" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="E8" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="F8" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="G8" s="33" t="s">
         <v>62</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>63</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -8389,7 +8162,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" s="22">
         <f>COUNTIF($E$19:$E$118,B9)</f>
@@ -8421,15 +8194,15 @@
         <v>2</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D10" s="22">
         <f t="shared" ref="D10:D15" si="0">COUNTIF($E$19:$E$118,B10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="22">
         <f>E9-D10</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" s="22">
         <f t="shared" ref="F10:F15" si="1">COUNTIFS($K$19:$K$118,B10,$J$19:$J$118,"O")</f>
@@ -8453,15 +8226,15 @@
         <v>3</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D11" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="22">
         <f t="shared" ref="E11:E15" si="2">E10-D11</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F11" s="22">
         <f t="shared" si="1"/>
@@ -8485,15 +8258,15 @@
         <v>4</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D12" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="22">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F12" s="22">
         <f t="shared" si="1"/>
@@ -8517,15 +8290,15 @@
         <v>5</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D13" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="22">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F13" s="22">
         <f t="shared" si="1"/>
@@ -8549,15 +8322,15 @@
         <v>6</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D14" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="22">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F14" s="22">
         <f t="shared" si="1"/>
@@ -8581,15 +8354,15 @@
         <v>7</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D15" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="25">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F15" s="25">
         <f t="shared" si="1"/>
@@ -8609,94 +8382,96 @@
     </row>
     <row r="16" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
-      <c r="B16" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="63"/>
+      <c r="B16" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="69"/>
       <c r="N16" s="18"/>
     </row>
     <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
-      <c r="B17" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="55"/>
+      <c r="B17" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="61"/>
       <c r="N17" s="18"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
       <c r="B18" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M18" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="N18" s="18"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="18"/>
       <c r="B19" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="22"/>
+        <v>102</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>175</v>
+      </c>
       <c r="E19" s="22">
         <v>1</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
@@ -8705,24 +8480,26 @@
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
       <c r="M19" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N19" s="18"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="18"/>
       <c r="B20" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="D20" s="22"/>
+        <v>105</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>175</v>
+      </c>
       <c r="E20" s="22">
         <v>1</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
@@ -8731,24 +8508,26 @@
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
       <c r="M20" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N20" s="18"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
       <c r="B21" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" s="22"/>
+        <v>108</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>175</v>
+      </c>
       <c r="E21" s="22">
         <v>1</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
@@ -8757,24 +8536,26 @@
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
       <c r="M21" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N21" s="18"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="18"/>
       <c r="B22" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="D22" s="22"/>
+        <v>111</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>175</v>
+      </c>
       <c r="E22" s="22">
         <v>1</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
@@ -8783,24 +8564,26 @@
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
       <c r="M22" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N22" s="18"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
       <c r="B23" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="D23" s="22"/>
+        <v>130</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>175</v>
+      </c>
       <c r="E23" s="22">
         <v>1</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
@@ -8809,48 +8592,54 @@
       <c r="K23" s="22"/>
       <c r="L23" s="22"/>
       <c r="M23" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N23" s="18"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="18"/>
       <c r="B24" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="D24" s="22"/>
+        <v>130</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>97</v>
+      </c>
       <c r="E24" s="22">
         <v>1</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="G24" s="22"/>
+        <v>70</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>70</v>
+      </c>
       <c r="H24" s="22"/>
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
       <c r="M24" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N24" s="18"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
       <c r="B25" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
+      <c r="E25" s="22">
+        <v>2</v>
+      </c>
       <c r="F25" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G25" s="22"/>
       <c r="H25" s="22"/>
@@ -8859,22 +8648,24 @@
       <c r="K25" s="22"/>
       <c r="L25" s="22"/>
       <c r="M25" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N25" s="18"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
       <c r="B26" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
+      <c r="E26" s="22">
+        <v>3</v>
+      </c>
       <c r="F26" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
@@ -8883,22 +8674,24 @@
       <c r="K26" s="22"/>
       <c r="L26" s="22"/>
       <c r="M26" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N26" s="18"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="18"/>
       <c r="B27" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
+      <c r="E27" s="22">
+        <v>4</v>
+      </c>
       <c r="F27" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G27" s="22"/>
       <c r="H27" s="22"/>
@@ -8907,22 +8700,24 @@
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
       <c r="M27" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N27" s="18"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="18"/>
       <c r="B28" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
+      <c r="E28" s="22">
+        <v>5</v>
+      </c>
       <c r="F28" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
@@ -8931,22 +8726,24 @@
       <c r="K28" s="22"/>
       <c r="L28" s="22"/>
       <c r="M28" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N28" s="18"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="18"/>
       <c r="B29" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
+      <c r="E29" s="22">
+        <v>6</v>
+      </c>
       <c r="F29" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G29" s="22"/>
       <c r="H29" s="22"/>
@@ -8955,22 +8752,24 @@
       <c r="K29" s="22"/>
       <c r="L29" s="22"/>
       <c r="M29" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N29" s="18"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="18"/>
       <c r="B30" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
+      <c r="E30" s="22">
+        <v>7</v>
+      </c>
       <c r="F30" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
@@ -8979,7 +8778,7 @@
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
       <c r="M30" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N30" s="18"/>
     </row>
@@ -10473,26 +10272,26 @@
     </row>
     <row r="2" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
-      <c r="B2" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="59"/>
+      <c r="B2" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="65"/>
       <c r="N2" s="18"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
       <c r="B3" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="36"/>
       <c r="D3" s="18"/>
@@ -10510,10 +10309,10 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
       <c r="B4" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
@@ -10530,10 +10329,10 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
       <c r="B5" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -10550,10 +10349,10 @@
     <row r="6" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="18"/>
@@ -10570,7 +10369,7 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
       <c r="B7" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
@@ -10588,22 +10387,22 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="18"/>
       <c r="B8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -10619,7 +10418,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="22">
         <f>COUNTIF($E$19:$E$118,B9)</f>
@@ -10651,7 +10450,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" s="22">
         <f t="shared" ref="D10:D15" si="0">COUNTIF($E$19:$E$118,B10)</f>
@@ -10683,7 +10482,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="22">
         <f t="shared" si="0"/>
@@ -10715,7 +10514,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="22">
         <f t="shared" si="0"/>
@@ -10747,7 +10546,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" s="22">
         <f t="shared" si="0"/>
@@ -10779,7 +10578,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="22">
         <f t="shared" si="0"/>
@@ -10811,7 +10610,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="25">
         <f t="shared" si="0"/>
@@ -10839,124 +10638,124 @@
     </row>
     <row r="16" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
-      <c r="B16" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="63"/>
+      <c r="B16" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="69"/>
       <c r="N16" s="18"/>
     </row>
     <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
-      <c r="B17" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="55"/>
+      <c r="B17" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="61"/>
       <c r="N17" s="18"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
       <c r="B18" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M18" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="N18" s="18"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="18"/>
       <c r="B19" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="22" t="s">
-        <v>54</v>
-      </c>
       <c r="D19" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" s="22">
         <v>1</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K19" s="22">
         <v>1</v>
       </c>
       <c r="L19" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M19" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N19" s="18"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="18"/>
       <c r="B20" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
@@ -10964,19 +10763,19 @@
         <v>2</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K20" s="22">
         <v>1</v>
@@ -10988,7 +10787,7 @@
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
       <c r="B21" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -10996,13 +10795,13 @@
         <v>3</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
@@ -11014,7 +10813,7 @@
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="18"/>
       <c r="B22" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
@@ -11022,10 +10821,10 @@
         <v>4</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H22" s="22"/>
       <c r="I22" s="22"/>
@@ -11038,7 +10837,7 @@
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
       <c r="B23" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
@@ -11046,7 +10845,7 @@
         <v>5</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
@@ -11060,7 +10859,7 @@
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="18"/>
       <c r="B24" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
@@ -11068,7 +10867,7 @@
         <v>6</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
@@ -11082,7 +10881,7 @@
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
       <c r="B25" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
@@ -11090,7 +10889,7 @@
         <v>7</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G25" s="22"/>
       <c r="H25" s="22"/>
@@ -12671,26 +12470,26 @@
     </row>
     <row r="2" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
-      <c r="B2" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="59"/>
+      <c r="B2" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="65"/>
       <c r="N2" s="18"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
       <c r="B3" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="36"/>
       <c r="D3" s="18"/>
@@ -12708,10 +12507,10 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
       <c r="B4" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
@@ -12728,10 +12527,10 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
       <c r="B5" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -12748,10 +12547,10 @@
     <row r="6" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="18"/>
@@ -12768,7 +12567,7 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
       <c r="B7" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
@@ -12786,22 +12585,22 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="18"/>
       <c r="B8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -12817,7 +12616,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="22">
         <f>COUNTIF($E$19:$E$118,B9)</f>
@@ -12849,7 +12648,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" s="22">
         <f t="shared" ref="D10:D15" si="0">COUNTIF($E$19:$E$118,B10)</f>
@@ -12881,7 +12680,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="22">
         <f t="shared" si="0"/>
@@ -12913,7 +12712,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="22">
         <f t="shared" si="0"/>
@@ -12945,7 +12744,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" s="22">
         <f t="shared" si="0"/>
@@ -12977,7 +12776,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="22">
         <f t="shared" si="0"/>
@@ -13009,7 +12808,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="25">
         <f t="shared" si="0"/>
@@ -13037,124 +12836,124 @@
     </row>
     <row r="16" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
-      <c r="B16" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="63"/>
+      <c r="B16" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="69"/>
       <c r="N16" s="18"/>
     </row>
     <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
-      <c r="B17" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="55"/>
+      <c r="B17" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="61"/>
       <c r="N17" s="18"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
       <c r="B18" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M18" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="N18" s="18"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="18"/>
       <c r="B19" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="22" t="s">
-        <v>54</v>
-      </c>
       <c r="D19" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" s="22">
         <v>1</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K19" s="22">
         <v>1</v>
       </c>
       <c r="L19" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M19" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N19" s="18"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="18"/>
       <c r="B20" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
@@ -13162,19 +12961,19 @@
         <v>2</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K20" s="22">
         <v>1</v>
@@ -13186,7 +12985,7 @@
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
       <c r="B21" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -13194,13 +12993,13 @@
         <v>3</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
@@ -13212,7 +13011,7 @@
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="18"/>
       <c r="B22" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
@@ -13220,10 +13019,10 @@
         <v>4</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H22" s="22"/>
       <c r="I22" s="22"/>
@@ -13236,7 +13035,7 @@
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
       <c r="B23" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
@@ -13244,7 +13043,7 @@
         <v>5</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
@@ -13258,7 +13057,7 @@
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="18"/>
       <c r="B24" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
@@ -13266,7 +13065,7 @@
         <v>6</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
@@ -13280,7 +13079,7 @@
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
       <c r="B25" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
@@ -13288,7 +13087,7 @@
         <v>7</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G25" s="22"/>
       <c r="H25" s="22"/>
@@ -14869,26 +14668,26 @@
     </row>
     <row r="2" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
-      <c r="B2" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="59"/>
+      <c r="B2" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="65"/>
       <c r="N2" s="18"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
       <c r="B3" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="36"/>
       <c r="D3" s="18"/>
@@ -14906,10 +14705,10 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
       <c r="B4" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
@@ -14926,10 +14725,10 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
       <c r="B5" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -14946,10 +14745,10 @@
     <row r="6" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="18"/>
@@ -14966,7 +14765,7 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
       <c r="B7" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
@@ -14984,22 +14783,22 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="18"/>
       <c r="B8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -15015,7 +14814,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="22">
         <f>COUNTIF($E$19:$E$118,B9)</f>
@@ -15047,7 +14846,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" s="22">
         <f t="shared" ref="D10:D15" si="0">COUNTIF($E$19:$E$118,B10)</f>
@@ -15079,7 +14878,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="22">
         <f t="shared" si="0"/>
@@ -15111,7 +14910,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="22">
         <f t="shared" si="0"/>
@@ -15143,7 +14942,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" s="22">
         <f t="shared" si="0"/>
@@ -15175,7 +14974,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="22">
         <f t="shared" si="0"/>
@@ -15207,7 +15006,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="25">
         <f t="shared" si="0"/>
@@ -15235,124 +15034,124 @@
     </row>
     <row r="16" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
-      <c r="B16" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="63"/>
+      <c r="B16" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="69"/>
       <c r="N16" s="18"/>
     </row>
     <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
-      <c r="B17" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="55"/>
+      <c r="B17" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="61"/>
       <c r="N17" s="18"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
       <c r="B18" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M18" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="N18" s="18"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="18"/>
       <c r="B19" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="22" t="s">
-        <v>54</v>
-      </c>
       <c r="D19" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" s="22">
         <v>1</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K19" s="22">
         <v>1</v>
       </c>
       <c r="L19" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M19" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N19" s="18"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="18"/>
       <c r="B20" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
@@ -15360,19 +15159,19 @@
         <v>2</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K20" s="22">
         <v>1</v>
@@ -15384,7 +15183,7 @@
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
       <c r="B21" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -15392,13 +15191,13 @@
         <v>3</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
@@ -15410,7 +15209,7 @@
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="18"/>
       <c r="B22" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
@@ -15418,10 +15217,10 @@
         <v>4</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H22" s="22"/>
       <c r="I22" s="22"/>
@@ -15434,7 +15233,7 @@
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
       <c r="B23" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
@@ -15442,7 +15241,7 @@
         <v>5</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
@@ -15456,7 +15255,7 @@
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="18"/>
       <c r="B24" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
@@ -15464,7 +15263,7 @@
         <v>6</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
@@ -15478,7 +15277,7 @@
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
       <c r="B25" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
@@ -15486,7 +15285,7 @@
         <v>7</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G25" s="22"/>
       <c r="H25" s="22"/>

--- a/Management/PRODUCTION/Production_Task_2017NOV09.xlsx
+++ b/Management/PRODUCTION/Production_Task_2017NOV09.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repositories\GDC2017Project\Management\PRODUCTION\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="20730" windowHeight="8775" activeTab="1"/>
   </bookViews>
@@ -13,13 +18,13 @@
     <sheet name="Sprint #3 Backlog" sheetId="8" r:id="rId4"/>
     <sheet name="Sprint #4 Backlog" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="179">
   <si>
     <t>Production Task Chart</t>
   </si>
@@ -547,12 +552,21 @@
   </si>
   <si>
     <t>ALL</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>PRM013</t>
+  </si>
+  <si>
+    <t>Create Character Super Class Script</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -988,6 +1002,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1012,15 +1044,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1043,15 +1066,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1276,7 +1290,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1347,7 +1361,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EF0D-4069-B25D-613773EB085E}"/>
             </c:ext>
@@ -1405,7 +1419,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-EF0D-4069-B25D-613773EB085E}"/>
             </c:ext>
@@ -1457,7 +1471,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1466,6 +1479,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1557,7 +1590,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1566,6 +1598,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1612,7 +1664,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1644,14 +1695,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1687,7 +1738,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1767,7 +1818,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C612-40A7-9F96-EB4D93577D25}"/>
             </c:ext>
@@ -1810,31 +1861,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C612-40A7-9F96-EB4D93577D25}"/>
             </c:ext>
@@ -1886,7 +1937,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1895,6 +1945,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1986,7 +2056,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1995,6 +2064,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2041,7 +2130,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2073,14 +2161,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2116,7 +2204,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2196,7 +2284,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4E52-438F-B18A-86E2B7D84A8A}"/>
             </c:ext>
@@ -2263,7 +2351,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4E52-438F-B18A-86E2B7D84A8A}"/>
             </c:ext>
@@ -2315,7 +2403,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2324,6 +2411,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2415,7 +2522,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2424,6 +2530,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2470,7 +2596,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2502,14 +2627,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2545,7 +2670,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2625,7 +2750,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0FBD-43AF-9F67-32392220AF80}"/>
             </c:ext>
@@ -2692,7 +2817,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0FBD-43AF-9F67-32392220AF80}"/>
             </c:ext>
@@ -2752,6 +2877,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2851,6 +2996,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2928,14 +3093,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2971,7 +3136,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3051,7 +3216,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D138-4731-867F-4F3C69710087}"/>
             </c:ext>
@@ -3118,7 +3283,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D138-4731-867F-4F3C69710087}"/>
             </c:ext>
@@ -3178,6 +3343,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3277,6 +3462,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3354,14 +3559,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6131,7 +6336,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{195A0F04-AE03-4B91-8B8F-171802523C49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{195A0F04-AE03-4B91-8B8F-171802523C49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6172,7 +6377,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C031D55E-2B68-4B87-A1AD-203FDFD95A40}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C031D55E-2B68-4B87-A1AD-203FDFD95A40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6213,7 +6418,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E0A947F4-F41D-4419-8750-C2850F5873A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0A947F4-F41D-4419-8750-C2850F5873A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6256,7 +6461,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6257F7BD-97DE-4834-AE08-9D8AF110B902}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6257F7BD-97DE-4834-AE08-9D8AF110B902}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6299,7 +6504,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{76C49400-69A8-4DAA-87EA-A71BEE27AB1F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76C49400-69A8-4DAA-87EA-A71BEE27AB1F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6365,7 +6570,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6398,9 +6603,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6433,6 +6655,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6646,20 +6885,20 @@
       <c r="N1" s="18"/>
     </row>
     <row r="2" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="58"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="39"/>
       <c r="N2" s="18"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
@@ -6682,36 +6921,36 @@
       <c r="N3" s="18"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="41" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="42"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="19"/>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="42"/>
       <c r="N4" s="18"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="41" t="s">
+      <c r="C5" s="44"/>
+      <c r="D5" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="19"/>
       <c r="H5" s="8" t="s">
         <v>26</v>
@@ -6734,15 +6973,15 @@
       <c r="N5" s="18"/>
     </row>
     <row r="6" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="43" t="s">
+      <c r="C6" s="46"/>
+      <c r="D6" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="44"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="50"/>
       <c r="G6" s="19"/>
       <c r="H6" s="16">
         <v>1</v>
@@ -6794,15 +7033,15 @@
       <c r="N7" s="18"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="41" t="s">
+      <c r="C8" s="44"/>
+      <c r="D8" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="48"/>
       <c r="G8" s="19"/>
       <c r="H8" s="16">
         <v>3</v>
@@ -6825,15 +7064,15 @@
       <c r="N8" s="18"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="41" t="s">
+      <c r="C9" s="44"/>
+      <c r="D9" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="42"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="48"/>
       <c r="G9" s="19"/>
       <c r="H9" s="16">
         <v>4</v>
@@ -6856,15 +7095,15 @@
       <c r="N9" s="18"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="41" t="s">
+      <c r="C10" s="44"/>
+      <c r="D10" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="42"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="48"/>
       <c r="G10" s="19"/>
       <c r="H10" s="16">
         <v>5</v>
@@ -6887,15 +7126,15 @@
       <c r="N10" s="18"/>
     </row>
     <row r="11" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="43" t="s">
+      <c r="C11" s="46"/>
+      <c r="D11" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="43"/>
-      <c r="F11" s="44"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="50"/>
       <c r="G11" s="19"/>
       <c r="H11" s="16">
         <v>6</v>
@@ -7048,14 +7287,14 @@
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="19"/>
-      <c r="H16" s="45" t="s">
+      <c r="H16" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="47"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="42"/>
       <c r="N16" s="18"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
@@ -7279,13 +7518,13 @@
       <c r="N24" s="18"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="50"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="53"/>
       <c r="G25" s="19"/>
       <c r="H25" s="16">
         <v>8</v>
@@ -7298,11 +7537,11 @@
       <c r="N25" s="18"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B26" s="48"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="50"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="53"/>
       <c r="G26" s="19"/>
       <c r="H26" s="16">
         <v>9</v>
@@ -7315,11 +7554,11 @@
       <c r="N26" s="18"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B27" s="48"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="50"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="53"/>
       <c r="G27" s="19"/>
       <c r="H27" s="16">
         <v>10</v>
@@ -7332,28 +7571,28 @@
       <c r="N27" s="18"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B28" s="48"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="50"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="53"/>
       <c r="G28" s="19"/>
-      <c r="H28" s="45" t="s">
+      <c r="H28" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="47"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="42"/>
       <c r="N28" s="18"/>
     </row>
     <row r="29" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="51"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="53"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="56"/>
       <c r="G29" s="19"/>
       <c r="H29" s="8" t="s">
         <v>26</v>
@@ -7395,10 +7634,10 @@
       <c r="N30" s="18"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="55"/>
+      <c r="C31" s="58"/>
       <c r="D31" s="4">
         <f>SUM(D34,D37,D40,D43)</f>
         <v>12</v>
@@ -7423,13 +7662,13 @@
       <c r="N31" s="18"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="47"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="42"/>
       <c r="G32" s="19"/>
       <c r="H32" s="16">
         <v>3</v>
@@ -7499,13 +7738,13 @@
       <c r="N34" s="18"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="47"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="42"/>
       <c r="G35" s="19"/>
       <c r="H35" s="16">
         <v>6</v>
@@ -7575,13 +7814,13 @@
       <c r="N37" s="18"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="47"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="42"/>
       <c r="G38" s="19"/>
       <c r="H38" s="16">
         <v>9</v>
@@ -7640,24 +7879,24 @@
         <v>0</v>
       </c>
       <c r="G40" s="19"/>
-      <c r="H40" s="45" t="s">
+      <c r="H40" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="47"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="42"/>
       <c r="N40" s="18"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="47"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="42"/>
       <c r="G41" s="19"/>
       <c r="H41" s="8" t="s">
         <v>26</v>
@@ -7924,6 +8163,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="H3:M3"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="H40:M40"/>
@@ -7940,21 +8194,6 @@
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="D11:F11"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
   </mergeCells>
   <conditionalFormatting sqref="E14:E23">
     <cfRule type="duplicateValues" dxfId="16" priority="5"/>
@@ -7985,8 +8224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E8" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8166,7 +8405,7 @@
       </c>
       <c r="D9" s="22">
         <f>COUNTIF($E$19:$E$118,B9)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9" s="22">
         <f>COUNTA(B19:B118)-D9</f>
@@ -8174,11 +8413,11 @@
       </c>
       <c r="F9" s="22">
         <f>COUNTIFS($K$19:$K$118,B9,$J$19:$J$118,"O")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G9" s="23">
         <f>COUNTA(B19:B118)-F9</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
@@ -8210,7 +8449,7 @@
       </c>
       <c r="G10" s="23">
         <f>G9-F10</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
@@ -8242,7 +8481,7 @@
       </c>
       <c r="G11" s="23">
         <f t="shared" ref="G11:G15" si="3">G10-F11</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
@@ -8274,7 +8513,7 @@
       </c>
       <c r="G12" s="23">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
@@ -8306,7 +8545,7 @@
       </c>
       <c r="G13" s="23">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
@@ -8338,7 +8577,7 @@
       </c>
       <c r="G14" s="23">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -8370,7 +8609,7 @@
       </c>
       <c r="G15" s="26">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
@@ -8473,12 +8712,24 @@
       <c r="F19" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
+      <c r="G19" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="K19" s="22">
+        <v>1</v>
+      </c>
+      <c r="L19" s="22" t="s">
+        <v>175</v>
+      </c>
       <c r="M19" s="23" t="s">
         <v>126</v>
       </c>
@@ -8501,12 +8752,24 @@
       <c r="F20" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
+      <c r="G20" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="K20" s="22">
+        <v>1</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>175</v>
+      </c>
       <c r="M20" s="23" t="s">
         <v>129</v>
       </c>
@@ -8529,12 +8792,24 @@
       <c r="F21" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
+      <c r="G21" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="K21" s="22">
+        <v>1</v>
+      </c>
+      <c r="L21" s="22" t="s">
+        <v>175</v>
+      </c>
       <c r="M21" s="23" t="s">
         <v>135</v>
       </c>
@@ -8557,12 +8832,24 @@
       <c r="F22" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
+      <c r="G22" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="K22" s="22">
+        <v>1</v>
+      </c>
+      <c r="L22" s="22" t="s">
+        <v>175</v>
+      </c>
       <c r="M22" s="23" t="s">
         <v>136</v>
       </c>
@@ -8585,12 +8872,24 @@
       <c r="F23" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
+      <c r="G23" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="I23" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="J23" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="K23" s="22">
+        <v>1</v>
+      </c>
+      <c r="L23" s="22" t="s">
+        <v>175</v>
+      </c>
       <c r="M23" s="23" t="s">
         <v>134</v>
       </c>
@@ -8784,18 +9083,28 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="22"/>
+      <c r="B31" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>130</v>
+      </c>
       <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
+      <c r="E31" s="22">
+        <v>1</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>70</v>
+      </c>
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
       <c r="I31" s="22"/>
       <c r="J31" s="22"/>
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
-      <c r="M31" s="23"/>
+      <c r="M31" s="23" t="s">
+        <v>178</v>
+      </c>
       <c r="N31" s="18"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">

--- a/Management/PRODUCTION/Production_Task_2017NOV09.xlsx
+++ b/Management/PRODUCTION/Production_Task_2017NOV09.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="200">
   <si>
     <t>Production Task Chart</t>
   </si>
@@ -518,9 +518,6 @@
     <t>NPC Health</t>
   </si>
   <si>
-    <t>DTE-PRM-0911</t>
-  </si>
-  <si>
     <t>DTE-PRM-012</t>
   </si>
   <si>
@@ -530,9 +527,6 @@
     <t>Melee Attack to player</t>
   </si>
   <si>
-    <t>DTE-PRM-1213</t>
-  </si>
-  <si>
     <t>Programming team's plan is to have basic character definitions set up before Thanksgiving week. After Thanksgiving week, UI and Environment will be implemented</t>
   </si>
   <si>
@@ -561,6 +555,75 @@
   </si>
   <si>
     <t>Create Character Super Class Script</t>
+  </si>
+  <si>
+    <t>BK (Pending)</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>DTE-PRM-013</t>
+  </si>
+  <si>
+    <t>Object Class Design</t>
+  </si>
+  <si>
+    <t>Design class structure for objects</t>
+  </si>
+  <si>
+    <t>DTE-PRM-014</t>
+  </si>
+  <si>
+    <t>Item Class Design</t>
+  </si>
+  <si>
+    <t>Design class structure for Item class</t>
+  </si>
+  <si>
+    <t>PRM014</t>
+  </si>
+  <si>
+    <t>Construct Item Super Class</t>
+  </si>
+  <si>
+    <t>PRM015</t>
+  </si>
+  <si>
+    <t>Construct Consumable Class, inherited from Item</t>
+  </si>
+  <si>
+    <t>PRM016</t>
+  </si>
+  <si>
+    <t>Construct Equipment Class, inherited from Item</t>
+  </si>
+  <si>
+    <t>Construct Weapon Class, inherited from Equipment</t>
+  </si>
+  <si>
+    <t>Construct Armour Class, inherited from Equipment</t>
+  </si>
+  <si>
+    <t>Construct MeleeWeapon Class, inherited from Weapon</t>
+  </si>
+  <si>
+    <t>Construct RangedWeapon Class, inherited from Weapon</t>
+  </si>
+  <si>
+    <t>PRM017</t>
+  </si>
+  <si>
+    <t>PRM018</t>
+  </si>
+  <si>
+    <t>PRM019</t>
+  </si>
+  <si>
+    <t>PRM020</t>
+  </si>
+  <si>
+    <t>DTE-PRM-1012</t>
   </si>
 </sst>
 </file>
@@ -1002,24 +1065,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1044,6 +1089,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1066,6 +1120,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1346,7 +1409,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1404,10 +1467,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1794,22 +1857,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -6851,7 +6914,7 @@
   <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6885,20 +6948,20 @@
       <c r="N1" s="18"/>
     </row>
     <row r="2" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="58"/>
       <c r="N2" s="18"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
@@ -6921,36 +6984,36 @@
       <c r="N3" s="18"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="47" t="s">
+      <c r="C4" s="38"/>
+      <c r="D4" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="48"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="19"/>
-      <c r="H4" s="40" t="s">
+      <c r="H4" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="42"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
       <c r="N4" s="18"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="47" t="s">
+      <c r="C5" s="38"/>
+      <c r="D5" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="48"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="19"/>
       <c r="H5" s="8" t="s">
         <v>26</v>
@@ -6973,15 +7036,15 @@
       <c r="N5" s="18"/>
     </row>
     <row r="6" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="49" t="s">
+      <c r="C6" s="40"/>
+      <c r="D6" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="50"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="19"/>
       <c r="H6" s="16">
         <v>1</v>
@@ -6990,7 +7053,7 @@
         <v>102</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>32</v>
+        <v>178</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>103</v>
@@ -7019,7 +7082,7 @@
         <v>105</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>32</v>
+        <v>178</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>106</v>
@@ -7033,15 +7096,15 @@
       <c r="N7" s="18"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" s="41"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="19"/>
       <c r="H8" s="16">
         <v>3</v>
@@ -7050,7 +7113,7 @@
         <v>108</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>32</v>
+        <v>178</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>109</v>
@@ -7064,15 +7127,15 @@
       <c r="N8" s="18"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="47" t="s">
+      <c r="C9" s="38"/>
+      <c r="D9" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="47"/>
-      <c r="F9" s="48"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="19"/>
       <c r="H9" s="16">
         <v>4</v>
@@ -7081,7 +7144,7 @@
         <v>111</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>32</v>
+        <v>178</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>112</v>
@@ -7095,15 +7158,15 @@
       <c r="N9" s="18"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="47" t="s">
+      <c r="C10" s="38"/>
+      <c r="D10" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="47"/>
-      <c r="F10" s="48"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="19"/>
       <c r="H10" s="16">
         <v>5</v>
@@ -7126,15 +7189,15 @@
       <c r="N10" s="18"/>
     </row>
     <row r="11" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="49" t="s">
+      <c r="C11" s="40"/>
+      <c r="D11" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="50"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="44"/>
       <c r="G11" s="19"/>
       <c r="H11" s="16">
         <v>6</v>
@@ -7240,11 +7303,21 @@
       <c r="H14" s="16">
         <v>9</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="10"/>
+      <c r="I14" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="N14" s="18"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
@@ -7287,14 +7360,14 @@
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="19"/>
-      <c r="H16" s="40" t="s">
+      <c r="H16" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="42"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="47"/>
       <c r="N16" s="18"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
@@ -7351,7 +7424,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>32</v>
@@ -7363,7 +7436,7 @@
         <v>159</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="N18" s="18"/>
     </row>
@@ -7386,7 +7459,7 @@
         <v>2</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>32</v>
@@ -7398,7 +7471,7 @@
         <v>159</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="N19" s="18"/>
     </row>
@@ -7415,7 +7488,7 @@
         <v>3</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>32</v>
@@ -7427,7 +7500,7 @@
         <v>159</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="N20" s="18"/>
     </row>
@@ -7444,19 +7517,19 @@
         <v>4</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>32</v>
       </c>
       <c r="K21" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="L21" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="L21" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="M21" s="10" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="N21" s="18"/>
     </row>
@@ -7472,11 +7545,21 @@
       <c r="H22" s="16">
         <v>5</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="10"/>
+      <c r="I22" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="N22" s="18"/>
     </row>
     <row r="23" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -7518,13 +7601,13 @@
       <c r="N24" s="18"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B25" s="51" t="s">
-        <v>169</v>
-      </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="53"/>
+      <c r="B25" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="50"/>
       <c r="G25" s="19"/>
       <c r="H25" s="16">
         <v>8</v>
@@ -7537,11 +7620,11 @@
       <c r="N25" s="18"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B26" s="51"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="53"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="19"/>
       <c r="H26" s="16">
         <v>9</v>
@@ -7554,11 +7637,11 @@
       <c r="N26" s="18"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B27" s="51"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="53"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
       <c r="G27" s="19"/>
       <c r="H27" s="16">
         <v>10</v>
@@ -7571,28 +7654,28 @@
       <c r="N27" s="18"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B28" s="51"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="53"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="50"/>
       <c r="G28" s="19"/>
-      <c r="H28" s="40" t="s">
+      <c r="H28" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="42"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="47"/>
       <c r="N28" s="18"/>
     </row>
     <row r="29" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="54"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="56"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="53"/>
       <c r="G29" s="19"/>
       <c r="H29" s="8" t="s">
         <v>26</v>
@@ -7634,21 +7717,21 @@
       <c r="N30" s="18"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B31" s="57" t="s">
+      <c r="B31" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="58"/>
+      <c r="C31" s="55"/>
       <c r="D31" s="4">
         <f>SUM(D34,D37,D40,D43)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E31" s="4">
         <f>SUM(E34,E37,E40,E43)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F31" s="10">
         <f>D31-E31</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G31" s="19"/>
       <c r="H31" s="16">
@@ -7662,13 +7745,13 @@
       <c r="N31" s="18"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="42"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="47"/>
       <c r="G32" s="19"/>
       <c r="H32" s="16">
         <v>3</v>
@@ -7716,15 +7799,15 @@
       </c>
       <c r="D34" s="4">
         <f>COUNTA(I6:I15)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E34" s="4">
         <f>COUNTIF(J6:J15,"CP")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F34" s="10">
         <f>D34-E34</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G34" s="19"/>
       <c r="H34" s="16">
@@ -7738,13 +7821,13 @@
       <c r="N34" s="18"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="42"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="47"/>
       <c r="G35" s="19"/>
       <c r="H35" s="16">
         <v>6</v>
@@ -7792,7 +7875,7 @@
       </c>
       <c r="D37" s="4">
         <f>COUNTA(I18:I27)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E37" s="4">
         <f>COUNTIF(J18:J27,"CP")</f>
@@ -7800,7 +7883,7 @@
       </c>
       <c r="F37" s="10">
         <f>D37-E37</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G37" s="19"/>
       <c r="H37" s="16">
@@ -7814,13 +7897,13 @@
       <c r="N37" s="18"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="42"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="47"/>
       <c r="G38" s="19"/>
       <c r="H38" s="16">
         <v>9</v>
@@ -7837,7 +7920,7 @@
         <v>17</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>22</v>
@@ -7864,7 +7947,7 @@
         <v>18</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D40" s="4">
         <f>COUNTA(I30:I39)</f>
@@ -7879,24 +7962,24 @@
         <v>0</v>
       </c>
       <c r="G40" s="19"/>
-      <c r="H40" s="40" t="s">
+      <c r="H40" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="42"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="47"/>
       <c r="N40" s="18"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B41" s="40" t="s">
+      <c r="B41" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="42"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="47"/>
       <c r="G41" s="19"/>
       <c r="H41" s="8" t="s">
         <v>26</v>
@@ -7923,7 +8006,7 @@
         <v>17</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>22</v>
@@ -7950,7 +8033,7 @@
         <v>18</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D43" s="12">
         <f>COUNTA(I42:I51)</f>
@@ -8163,21 +8246,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B31:C31"/>
     <mergeCell ref="H3:M3"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="H40:M40"/>
@@ -8194,6 +8262,21 @@
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="D11:F11"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
   </mergeCells>
   <conditionalFormatting sqref="E14:E23">
     <cfRule type="duplicateValues" dxfId="16" priority="5"/>
@@ -8224,8 +8307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8405,15 +8488,15 @@
       </c>
       <c r="D9" s="22">
         <f>COUNTIF($E$19:$E$118,B9)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E9" s="22">
         <f>COUNTA(B19:B118)-D9</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9" s="22">
         <f>COUNTIFS($K$19:$K$118,B9,$J$19:$J$118,"O")</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G9" s="23">
         <f>COUNTA(B19:B118)-F9</f>
@@ -8441,7 +8524,7 @@
       </c>
       <c r="E10" s="22">
         <f>E9-D10</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10" s="22">
         <f t="shared" ref="F10:F15" si="1">COUNTIFS($K$19:$K$118,B10,$J$19:$J$118,"O")</f>
@@ -8469,11 +8552,11 @@
       </c>
       <c r="D11" s="22">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E11" s="22">
         <f t="shared" ref="E11:E15" si="2">E10-D11</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F11" s="22">
         <f t="shared" si="1"/>
@@ -8501,11 +8584,11 @@
       </c>
       <c r="D12" s="22">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="22">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F12" s="22">
         <f t="shared" si="1"/>
@@ -8533,11 +8616,11 @@
       </c>
       <c r="D13" s="22">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="22">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F13" s="22">
         <f t="shared" si="1"/>
@@ -8565,11 +8648,11 @@
       </c>
       <c r="D14" s="22">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="22">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="22">
         <f t="shared" si="1"/>
@@ -8597,7 +8680,7 @@
       </c>
       <c r="D15" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="25">
         <f t="shared" si="2"/>
@@ -8704,7 +8787,7 @@
         <v>102</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E19" s="22">
         <v>1</v>
@@ -8713,13 +8796,13 @@
         <v>70</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J19" s="22" t="s">
         <v>70</v>
@@ -8728,7 +8811,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M19" s="23" t="s">
         <v>126</v>
@@ -8744,7 +8827,7 @@
         <v>105</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E20" s="22">
         <v>1</v>
@@ -8753,13 +8836,13 @@
         <v>70</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J20" s="22" t="s">
         <v>70</v>
@@ -8768,7 +8851,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M20" s="23" t="s">
         <v>129</v>
@@ -8784,7 +8867,7 @@
         <v>108</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E21" s="22">
         <v>1</v>
@@ -8793,13 +8876,13 @@
         <v>70</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J21" s="22" t="s">
         <v>70</v>
@@ -8808,7 +8891,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M21" s="23" t="s">
         <v>135</v>
@@ -8824,7 +8907,7 @@
         <v>111</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E22" s="22">
         <v>1</v>
@@ -8833,13 +8916,13 @@
         <v>70</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J22" s="22" t="s">
         <v>70</v>
@@ -8848,7 +8931,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M22" s="23" t="s">
         <v>136</v>
@@ -8864,7 +8947,7 @@
         <v>130</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E23" s="22">
         <v>1</v>
@@ -8873,13 +8956,13 @@
         <v>70</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J23" s="22" t="s">
         <v>70</v>
@@ -8888,7 +8971,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M23" s="23" t="s">
         <v>134</v>
@@ -8933,9 +9016,11 @@
       <c r="C25" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="22"/>
+      <c r="D25" s="22" t="s">
+        <v>93</v>
+      </c>
       <c r="E25" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25" s="22" t="s">
         <v>70</v>
@@ -8959,7 +9044,9 @@
       <c r="C26" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="D26" s="22"/>
+      <c r="D26" s="22" t="s">
+        <v>93</v>
+      </c>
       <c r="E26" s="22">
         <v>3</v>
       </c>
@@ -8985,9 +9072,11 @@
       <c r="C27" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="D27" s="22"/>
+      <c r="D27" s="22" t="s">
+        <v>93</v>
+      </c>
       <c r="E27" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F27" s="22" t="s">
         <v>70</v>
@@ -9011,9 +9100,11 @@
       <c r="C28" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="D28" s="22"/>
+      <c r="D28" s="22" t="s">
+        <v>95</v>
+      </c>
       <c r="E28" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F28" s="22" t="s">
         <v>70</v>
@@ -9039,7 +9130,7 @@
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F29" s="22" t="s">
         <v>70</v>
@@ -9063,9 +9154,11 @@
       <c r="C30" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="D30" s="22"/>
+      <c r="D30" s="22" t="s">
+        <v>177</v>
+      </c>
       <c r="E30" s="22">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F30" s="22" t="s">
         <v>70</v>
@@ -9084,14 +9177,16 @@
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
       <c r="B31" s="21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C31" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="D31" s="22"/>
+      <c r="D31" s="22" t="s">
+        <v>79</v>
+      </c>
       <c r="E31" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" s="22" t="s">
         <v>70</v>
@@ -9103,120 +9198,288 @@
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
       <c r="M31" s="23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="N31" s="18"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="18"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="23"/>
+      <c r="B32" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="E32" s="22">
+        <v>1</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="I32" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="J32" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="K32" s="22">
+        <v>1</v>
+      </c>
+      <c r="L32" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="M32" s="23" t="s">
+        <v>186</v>
+      </c>
       <c r="N32" s="18"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="18"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="23"/>
+      <c r="B33" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="E33" s="22">
+        <v>1</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="I33" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="J33" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="K33" s="22">
+        <v>1</v>
+      </c>
+      <c r="L33" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="M33" s="23" t="s">
+        <v>188</v>
+      </c>
       <c r="N33" s="18"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="18"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="23"/>
+      <c r="B34" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="E34" s="22">
+        <v>1</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="I34" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="J34" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="K34" s="22">
+        <v>1</v>
+      </c>
+      <c r="L34" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="M34" s="23" t="s">
+        <v>192</v>
+      </c>
       <c r="N34" s="18"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="18"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="23"/>
+      <c r="B35" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="E35" s="22">
+        <v>1</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="I35" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="J35" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="K35" s="22">
+        <v>1</v>
+      </c>
+      <c r="L35" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="M35" s="23" t="s">
+        <v>193</v>
+      </c>
       <c r="N35" s="18"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="18"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="23"/>
+      <c r="B36" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="E36" s="22">
+        <v>1</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="I36" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="J36" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="K36" s="22">
+        <v>1</v>
+      </c>
+      <c r="L36" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="M36" s="23" t="s">
+        <v>194</v>
+      </c>
       <c r="N36" s="18"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="18"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="23"/>
+      <c r="B37" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="E37" s="22">
+        <v>1</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="I37" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="J37" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="K37" s="22">
+        <v>1</v>
+      </c>
+      <c r="L37" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="M37" s="23" t="s">
+        <v>191</v>
+      </c>
       <c r="N37" s="18"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="18"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="23"/>
+      <c r="B38" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="E38" s="22">
+        <v>1</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="H38" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="I38" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="J38" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="K38" s="22">
+        <v>1</v>
+      </c>
+      <c r="L38" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="M38" s="23" t="s">
+        <v>190</v>
+      </c>
       <c r="N38" s="18"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -10551,7 +10814,7 @@
   <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:F15"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Management/PRODUCTION/Production_Task_2017NOV09.xlsx
+++ b/Management/PRODUCTION/Production_Task_2017NOV09.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="200">
   <si>
     <t>Production Task Chart</t>
   </si>
@@ -1065,6 +1065,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1089,15 +1107,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1120,15 +1129,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1924,25 +1924,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6948,20 +6948,20 @@
       <c r="N1" s="18"/>
     </row>
     <row r="2" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="58"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="39"/>
       <c r="N2" s="18"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
@@ -6984,36 +6984,36 @@
       <c r="N3" s="18"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="41" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="42"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="19"/>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="42"/>
       <c r="N4" s="18"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="41" t="s">
+      <c r="C5" s="44"/>
+      <c r="D5" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="19"/>
       <c r="H5" s="8" t="s">
         <v>26</v>
@@ -7036,15 +7036,15 @@
       <c r="N5" s="18"/>
     </row>
     <row r="6" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="43" t="s">
+      <c r="C6" s="46"/>
+      <c r="D6" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="44"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="50"/>
       <c r="G6" s="19"/>
       <c r="H6" s="16">
         <v>1</v>
@@ -7096,15 +7096,15 @@
       <c r="N7" s="18"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="41" t="s">
+      <c r="C8" s="44"/>
+      <c r="D8" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="48"/>
       <c r="G8" s="19"/>
       <c r="H8" s="16">
         <v>3</v>
@@ -7127,15 +7127,15 @@
       <c r="N8" s="18"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="41" t="s">
+      <c r="C9" s="44"/>
+      <c r="D9" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="42"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="48"/>
       <c r="G9" s="19"/>
       <c r="H9" s="16">
         <v>4</v>
@@ -7158,15 +7158,15 @@
       <c r="N9" s="18"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="41" t="s">
+      <c r="C10" s="44"/>
+      <c r="D10" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="42"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="48"/>
       <c r="G10" s="19"/>
       <c r="H10" s="16">
         <v>5</v>
@@ -7189,15 +7189,15 @@
       <c r="N10" s="18"/>
     </row>
     <row r="11" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="43" t="s">
+      <c r="C11" s="46"/>
+      <c r="D11" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="43"/>
-      <c r="F11" s="44"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="50"/>
       <c r="G11" s="19"/>
       <c r="H11" s="16">
         <v>6</v>
@@ -7360,14 +7360,14 @@
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="19"/>
-      <c r="H16" s="45" t="s">
+      <c r="H16" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="47"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="42"/>
       <c r="N16" s="18"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
@@ -7601,13 +7601,13 @@
       <c r="N24" s="18"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="50"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="53"/>
       <c r="G25" s="19"/>
       <c r="H25" s="16">
         <v>8</v>
@@ -7620,11 +7620,11 @@
       <c r="N25" s="18"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B26" s="48"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="50"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="53"/>
       <c r="G26" s="19"/>
       <c r="H26" s="16">
         <v>9</v>
@@ -7637,11 +7637,11 @@
       <c r="N26" s="18"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B27" s="48"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="50"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="53"/>
       <c r="G27" s="19"/>
       <c r="H27" s="16">
         <v>10</v>
@@ -7654,28 +7654,28 @@
       <c r="N27" s="18"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B28" s="48"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="50"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="53"/>
       <c r="G28" s="19"/>
-      <c r="H28" s="45" t="s">
+      <c r="H28" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="47"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="42"/>
       <c r="N28" s="18"/>
     </row>
     <row r="29" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="51"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="53"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="56"/>
       <c r="G29" s="19"/>
       <c r="H29" s="8" t="s">
         <v>26</v>
@@ -7717,10 +7717,10 @@
       <c r="N30" s="18"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="55"/>
+      <c r="C31" s="58"/>
       <c r="D31" s="4">
         <f>SUM(D34,D37,D40,D43)</f>
         <v>14</v>
@@ -7745,13 +7745,13 @@
       <c r="N31" s="18"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="47"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="42"/>
       <c r="G32" s="19"/>
       <c r="H32" s="16">
         <v>3</v>
@@ -7821,13 +7821,13 @@
       <c r="N34" s="18"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="47"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="42"/>
       <c r="G35" s="19"/>
       <c r="H35" s="16">
         <v>6</v>
@@ -7897,13 +7897,13 @@
       <c r="N37" s="18"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="47"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="42"/>
       <c r="G38" s="19"/>
       <c r="H38" s="16">
         <v>9</v>
@@ -7962,24 +7962,24 @@
         <v>0</v>
       </c>
       <c r="G40" s="19"/>
-      <c r="H40" s="45" t="s">
+      <c r="H40" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="47"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="42"/>
       <c r="N40" s="18"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="47"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="42"/>
       <c r="G41" s="19"/>
       <c r="H41" s="8" t="s">
         <v>26</v>
@@ -8246,6 +8246,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="H3:M3"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="H40:M40"/>
@@ -8262,21 +8277,6 @@
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="D11:F11"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
   </mergeCells>
   <conditionalFormatting sqref="E14:E23">
     <cfRule type="duplicateValues" dxfId="16" priority="5"/>
@@ -8307,8 +8307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8496,11 +8496,11 @@
       </c>
       <c r="F9" s="22">
         <f>COUNTIFS($K$19:$K$118,B9,$J$19:$J$118,"O")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" s="23">
         <f>COUNTA(B19:B118)-F9</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
@@ -8532,7 +8532,7 @@
       </c>
       <c r="G10" s="23">
         <f>G9-F10</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
@@ -8564,7 +8564,7 @@
       </c>
       <c r="G11" s="23">
         <f t="shared" ref="G11:G15" si="3">G10-F11</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
@@ -8596,7 +8596,7 @@
       </c>
       <c r="G12" s="23">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
@@ -8628,7 +8628,7 @@
       </c>
       <c r="G13" s="23">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
@@ -8660,7 +8660,7 @@
       </c>
       <c r="G14" s="23">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -8692,7 +8692,7 @@
       </c>
       <c r="G15" s="26">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
@@ -9191,12 +9191,24 @@
       <c r="F31" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
+      <c r="G31" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I31" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="J31" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="K31" s="22">
+        <v>1</v>
+      </c>
+      <c r="L31" s="22" t="s">
+        <v>79</v>
+      </c>
       <c r="M31" s="23" t="s">
         <v>176</v>
       </c>

--- a/Management/PRODUCTION/Production_Task_2017NOV09.xlsx
+++ b/Management/PRODUCTION/Production_Task_2017NOV09.xlsx
@@ -1065,24 +1065,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1107,6 +1089,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1129,6 +1120,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1924,7 +1924,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7</c:v>
@@ -6948,20 +6948,20 @@
       <c r="N1" s="18"/>
     </row>
     <row r="2" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="58"/>
       <c r="N2" s="18"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
@@ -6984,36 +6984,36 @@
       <c r="N3" s="18"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="47" t="s">
+      <c r="C4" s="38"/>
+      <c r="D4" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="48"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="19"/>
-      <c r="H4" s="40" t="s">
+      <c r="H4" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="42"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
       <c r="N4" s="18"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="47" t="s">
+      <c r="C5" s="38"/>
+      <c r="D5" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="48"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="19"/>
       <c r="H5" s="8" t="s">
         <v>26</v>
@@ -7036,15 +7036,15 @@
       <c r="N5" s="18"/>
     </row>
     <row r="6" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="49" t="s">
+      <c r="C6" s="40"/>
+      <c r="D6" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="50"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="19"/>
       <c r="H6" s="16">
         <v>1</v>
@@ -7096,15 +7096,15 @@
       <c r="N7" s="18"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="47" t="s">
+      <c r="C8" s="38"/>
+      <c r="D8" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="19"/>
       <c r="H8" s="16">
         <v>3</v>
@@ -7127,15 +7127,15 @@
       <c r="N8" s="18"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="47" t="s">
+      <c r="C9" s="38"/>
+      <c r="D9" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="47"/>
-      <c r="F9" s="48"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="19"/>
       <c r="H9" s="16">
         <v>4</v>
@@ -7158,15 +7158,15 @@
       <c r="N9" s="18"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="47" t="s">
+      <c r="C10" s="38"/>
+      <c r="D10" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="47"/>
-      <c r="F10" s="48"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="19"/>
       <c r="H10" s="16">
         <v>5</v>
@@ -7189,15 +7189,15 @@
       <c r="N10" s="18"/>
     </row>
     <row r="11" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="49" t="s">
+      <c r="C11" s="40"/>
+      <c r="D11" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="50"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="44"/>
       <c r="G11" s="19"/>
       <c r="H11" s="16">
         <v>6</v>
@@ -7360,14 +7360,14 @@
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="19"/>
-      <c r="H16" s="40" t="s">
+      <c r="H16" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="42"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="47"/>
       <c r="N16" s="18"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
@@ -7601,13 +7601,13 @@
       <c r="N24" s="18"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="53"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="50"/>
       <c r="G25" s="19"/>
       <c r="H25" s="16">
         <v>8</v>
@@ -7620,11 +7620,11 @@
       <c r="N25" s="18"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B26" s="51"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="53"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="19"/>
       <c r="H26" s="16">
         <v>9</v>
@@ -7637,11 +7637,11 @@
       <c r="N26" s="18"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B27" s="51"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="53"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
       <c r="G27" s="19"/>
       <c r="H27" s="16">
         <v>10</v>
@@ -7654,28 +7654,28 @@
       <c r="N27" s="18"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B28" s="51"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="53"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="50"/>
       <c r="G28" s="19"/>
-      <c r="H28" s="40" t="s">
+      <c r="H28" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="42"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="47"/>
       <c r="N28" s="18"/>
     </row>
     <row r="29" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="54"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="56"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="53"/>
       <c r="G29" s="19"/>
       <c r="H29" s="8" t="s">
         <v>26</v>
@@ -7717,10 +7717,10 @@
       <c r="N30" s="18"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B31" s="57" t="s">
+      <c r="B31" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="58"/>
+      <c r="C31" s="55"/>
       <c r="D31" s="4">
         <f>SUM(D34,D37,D40,D43)</f>
         <v>14</v>
@@ -7745,13 +7745,13 @@
       <c r="N31" s="18"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="42"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="47"/>
       <c r="G32" s="19"/>
       <c r="H32" s="16">
         <v>3</v>
@@ -7821,13 +7821,13 @@
       <c r="N34" s="18"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="42"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="47"/>
       <c r="G35" s="19"/>
       <c r="H35" s="16">
         <v>6</v>
@@ -7897,13 +7897,13 @@
       <c r="N37" s="18"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="42"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="47"/>
       <c r="G38" s="19"/>
       <c r="H38" s="16">
         <v>9</v>
@@ -7962,24 +7962,24 @@
         <v>0</v>
       </c>
       <c r="G40" s="19"/>
-      <c r="H40" s="40" t="s">
+      <c r="H40" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="42"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="47"/>
       <c r="N40" s="18"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B41" s="40" t="s">
+      <c r="B41" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="42"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="47"/>
       <c r="G41" s="19"/>
       <c r="H41" s="8" t="s">
         <v>26</v>
@@ -8246,21 +8246,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B31:C31"/>
     <mergeCell ref="H3:M3"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="H40:M40"/>
@@ -8277,6 +8262,21 @@
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="D11:F11"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
   </mergeCells>
   <conditionalFormatting sqref="E14:E23">
     <cfRule type="duplicateValues" dxfId="16" priority="5"/>
@@ -8307,8 +8307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8496,11 +8496,11 @@
       </c>
       <c r="F9" s="22">
         <f>COUNTIFS($K$19:$K$118,B9,$J$19:$J$118,"O")</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" s="23">
         <f>COUNTA(B19:B118)-F9</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
@@ -8528,7 +8528,7 @@
       </c>
       <c r="F10" s="22">
         <f t="shared" ref="F10:F15" si="1">COUNTIFS($K$19:$K$118,B10,$J$19:$J$118,"O")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="23">
         <f>G9-F10</f>
@@ -9204,7 +9204,7 @@
         <v>70</v>
       </c>
       <c r="K31" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31" s="22" t="s">
         <v>79</v>

--- a/Management/PRODUCTION/Production_Task_2017NOV09.xlsx
+++ b/Management/PRODUCTION/Production_Task_2017NOV09.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1065,6 +1065,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1089,15 +1107,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1120,15 +1129,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1857,10 +1857,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -6948,20 +6948,20 @@
       <c r="N1" s="18"/>
     </row>
     <row r="2" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="58"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="39"/>
       <c r="N2" s="18"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
@@ -6984,36 +6984,36 @@
       <c r="N3" s="18"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="41" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="42"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="19"/>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="42"/>
       <c r="N4" s="18"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="41" t="s">
+      <c r="C5" s="44"/>
+      <c r="D5" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="19"/>
       <c r="H5" s="8" t="s">
         <v>26</v>
@@ -7036,15 +7036,15 @@
       <c r="N5" s="18"/>
     </row>
     <row r="6" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="43" t="s">
+      <c r="C6" s="46"/>
+      <c r="D6" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="44"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="50"/>
       <c r="G6" s="19"/>
       <c r="H6" s="16">
         <v>1</v>
@@ -7096,15 +7096,15 @@
       <c r="N7" s="18"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="41" t="s">
+      <c r="C8" s="44"/>
+      <c r="D8" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="48"/>
       <c r="G8" s="19"/>
       <c r="H8" s="16">
         <v>3</v>
@@ -7127,15 +7127,15 @@
       <c r="N8" s="18"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="41" t="s">
+      <c r="C9" s="44"/>
+      <c r="D9" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="42"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="48"/>
       <c r="G9" s="19"/>
       <c r="H9" s="16">
         <v>4</v>
@@ -7158,15 +7158,15 @@
       <c r="N9" s="18"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="41" t="s">
+      <c r="C10" s="44"/>
+      <c r="D10" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="42"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="48"/>
       <c r="G10" s="19"/>
       <c r="H10" s="16">
         <v>5</v>
@@ -7189,15 +7189,15 @@
       <c r="N10" s="18"/>
     </row>
     <row r="11" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="43" t="s">
+      <c r="C11" s="46"/>
+      <c r="D11" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="43"/>
-      <c r="F11" s="44"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="50"/>
       <c r="G11" s="19"/>
       <c r="H11" s="16">
         <v>6</v>
@@ -7360,14 +7360,14 @@
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="19"/>
-      <c r="H16" s="45" t="s">
+      <c r="H16" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="47"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="42"/>
       <c r="N16" s="18"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
@@ -7601,13 +7601,13 @@
       <c r="N24" s="18"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="50"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="53"/>
       <c r="G25" s="19"/>
       <c r="H25" s="16">
         <v>8</v>
@@ -7620,11 +7620,11 @@
       <c r="N25" s="18"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B26" s="48"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="50"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="53"/>
       <c r="G26" s="19"/>
       <c r="H26" s="16">
         <v>9</v>
@@ -7637,11 +7637,11 @@
       <c r="N26" s="18"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B27" s="48"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="50"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="53"/>
       <c r="G27" s="19"/>
       <c r="H27" s="16">
         <v>10</v>
@@ -7654,28 +7654,28 @@
       <c r="N27" s="18"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B28" s="48"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="50"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="53"/>
       <c r="G28" s="19"/>
-      <c r="H28" s="45" t="s">
+      <c r="H28" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="47"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="42"/>
       <c r="N28" s="18"/>
     </row>
     <row r="29" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="51"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="53"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="56"/>
       <c r="G29" s="19"/>
       <c r="H29" s="8" t="s">
         <v>26</v>
@@ -7717,10 +7717,10 @@
       <c r="N30" s="18"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="55"/>
+      <c r="C31" s="58"/>
       <c r="D31" s="4">
         <f>SUM(D34,D37,D40,D43)</f>
         <v>14</v>
@@ -7745,13 +7745,13 @@
       <c r="N31" s="18"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="47"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="42"/>
       <c r="G32" s="19"/>
       <c r="H32" s="16">
         <v>3</v>
@@ -7821,13 +7821,13 @@
       <c r="N34" s="18"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="47"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="42"/>
       <c r="G35" s="19"/>
       <c r="H35" s="16">
         <v>6</v>
@@ -7897,13 +7897,13 @@
       <c r="N37" s="18"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="47"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="42"/>
       <c r="G38" s="19"/>
       <c r="H38" s="16">
         <v>9</v>
@@ -7962,24 +7962,24 @@
         <v>0</v>
       </c>
       <c r="G40" s="19"/>
-      <c r="H40" s="45" t="s">
+      <c r="H40" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="47"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="42"/>
       <c r="N40" s="18"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="47"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="42"/>
       <c r="G41" s="19"/>
       <c r="H41" s="8" t="s">
         <v>26</v>
@@ -8246,6 +8246,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="H3:M3"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="H40:M40"/>
@@ -8262,21 +8277,6 @@
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="D11:F11"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
   </mergeCells>
   <conditionalFormatting sqref="E14:E23">
     <cfRule type="duplicateValues" dxfId="16" priority="5"/>
@@ -8308,7 +8308,7 @@
   <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8488,11 +8488,11 @@
       </c>
       <c r="D9" s="22">
         <f>COUNTIF($E$19:$E$118,B9)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="22">
         <f>COUNTA(B19:B118)-D9</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" s="22">
         <f>COUNTIFS($K$19:$K$118,B9,$J$19:$J$118,"O")</f>
@@ -8524,7 +8524,7 @@
       </c>
       <c r="E10" s="22">
         <f>E9-D10</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F10" s="22">
         <f t="shared" ref="F10:F15" si="1">COUNTIFS($K$19:$K$118,B10,$J$19:$J$118,"O")</f>
@@ -8552,7 +8552,7 @@
       </c>
       <c r="D11" s="22">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E11" s="22">
         <f t="shared" ref="E11:E15" si="2">E10-D11</f>
@@ -8990,7 +8990,7 @@
         <v>97</v>
       </c>
       <c r="E24" s="22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24" s="22" t="s">
         <v>70</v>

--- a/Management/PRODUCTION/Production_Task_2017NOV09.xlsx
+++ b/Management/PRODUCTION/Production_Task_2017NOV09.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="200">
   <si>
     <t>Production Task Chart</t>
   </si>
@@ -1065,24 +1065,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1107,6 +1089,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1129,6 +1120,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1930,19 +1930,19 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6948,20 +6948,20 @@
       <c r="N1" s="18"/>
     </row>
     <row r="2" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="58"/>
       <c r="N2" s="18"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
@@ -6984,36 +6984,36 @@
       <c r="N3" s="18"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="47" t="s">
+      <c r="C4" s="38"/>
+      <c r="D4" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="48"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="19"/>
-      <c r="H4" s="40" t="s">
+      <c r="H4" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="42"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
       <c r="N4" s="18"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="47" t="s">
+      <c r="C5" s="38"/>
+      <c r="D5" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="48"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="19"/>
       <c r="H5" s="8" t="s">
         <v>26</v>
@@ -7036,15 +7036,15 @@
       <c r="N5" s="18"/>
     </row>
     <row r="6" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="49" t="s">
+      <c r="C6" s="40"/>
+      <c r="D6" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="50"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="19"/>
       <c r="H6" s="16">
         <v>1</v>
@@ -7096,15 +7096,15 @@
       <c r="N7" s="18"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="47" t="s">
+      <c r="C8" s="38"/>
+      <c r="D8" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="19"/>
       <c r="H8" s="16">
         <v>3</v>
@@ -7127,15 +7127,15 @@
       <c r="N8" s="18"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="47" t="s">
+      <c r="C9" s="38"/>
+      <c r="D9" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="47"/>
-      <c r="F9" s="48"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="19"/>
       <c r="H9" s="16">
         <v>4</v>
@@ -7158,15 +7158,15 @@
       <c r="N9" s="18"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="47" t="s">
+      <c r="C10" s="38"/>
+      <c r="D10" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="47"/>
-      <c r="F10" s="48"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="19"/>
       <c r="H10" s="16">
         <v>5</v>
@@ -7189,15 +7189,15 @@
       <c r="N10" s="18"/>
     </row>
     <row r="11" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="49" t="s">
+      <c r="C11" s="40"/>
+      <c r="D11" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="50"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="44"/>
       <c r="G11" s="19"/>
       <c r="H11" s="16">
         <v>6</v>
@@ -7360,14 +7360,14 @@
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="19"/>
-      <c r="H16" s="40" t="s">
+      <c r="H16" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="42"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="47"/>
       <c r="N16" s="18"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
@@ -7601,13 +7601,13 @@
       <c r="N24" s="18"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="53"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="50"/>
       <c r="G25" s="19"/>
       <c r="H25" s="16">
         <v>8</v>
@@ -7620,11 +7620,11 @@
       <c r="N25" s="18"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B26" s="51"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="53"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="19"/>
       <c r="H26" s="16">
         <v>9</v>
@@ -7637,11 +7637,11 @@
       <c r="N26" s="18"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B27" s="51"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="53"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
       <c r="G27" s="19"/>
       <c r="H27" s="16">
         <v>10</v>
@@ -7654,28 +7654,28 @@
       <c r="N27" s="18"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B28" s="51"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="53"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="50"/>
       <c r="G28" s="19"/>
-      <c r="H28" s="40" t="s">
+      <c r="H28" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="42"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="47"/>
       <c r="N28" s="18"/>
     </row>
     <row r="29" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="54"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="56"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="53"/>
       <c r="G29" s="19"/>
       <c r="H29" s="8" t="s">
         <v>26</v>
@@ -7717,10 +7717,10 @@
       <c r="N30" s="18"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B31" s="57" t="s">
+      <c r="B31" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="58"/>
+      <c r="C31" s="55"/>
       <c r="D31" s="4">
         <f>SUM(D34,D37,D40,D43)</f>
         <v>14</v>
@@ -7745,13 +7745,13 @@
       <c r="N31" s="18"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="42"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="47"/>
       <c r="G32" s="19"/>
       <c r="H32" s="16">
         <v>3</v>
@@ -7821,13 +7821,13 @@
       <c r="N34" s="18"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="42"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="47"/>
       <c r="G35" s="19"/>
       <c r="H35" s="16">
         <v>6</v>
@@ -7897,13 +7897,13 @@
       <c r="N37" s="18"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="42"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="47"/>
       <c r="G38" s="19"/>
       <c r="H38" s="16">
         <v>9</v>
@@ -7962,24 +7962,24 @@
         <v>0</v>
       </c>
       <c r="G40" s="19"/>
-      <c r="H40" s="40" t="s">
+      <c r="H40" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="42"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="47"/>
       <c r="N40" s="18"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B41" s="40" t="s">
+      <c r="B41" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="42"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="47"/>
       <c r="G41" s="19"/>
       <c r="H41" s="8" t="s">
         <v>26</v>
@@ -8246,21 +8246,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B31:C31"/>
     <mergeCell ref="H3:M3"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="H40:M40"/>
@@ -8277,6 +8262,21 @@
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="D11:F11"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
   </mergeCells>
   <conditionalFormatting sqref="E14:E23">
     <cfRule type="duplicateValues" dxfId="16" priority="5"/>
@@ -8307,8 +8307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8560,11 +8560,11 @@
       </c>
       <c r="F11" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="23">
         <f t="shared" ref="G11:G15" si="3">G10-F11</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
@@ -8596,7 +8596,7 @@
       </c>
       <c r="G12" s="23">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
@@ -8628,7 +8628,7 @@
       </c>
       <c r="G13" s="23">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
@@ -8660,7 +8660,7 @@
       </c>
       <c r="G14" s="23">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -8692,7 +8692,7 @@
       </c>
       <c r="G15" s="26">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
@@ -9109,12 +9109,24 @@
       <c r="F28" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
+      <c r="G28" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I28" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="J28" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="K28" s="22">
+        <v>3</v>
+      </c>
+      <c r="L28" s="22" t="s">
+        <v>95</v>
+      </c>
       <c r="M28" s="23" t="s">
         <v>152</v>
       </c>
@@ -9163,7 +9175,9 @@
       <c r="F30" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G30" s="22"/>
+      <c r="G30" s="22" t="s">
+        <v>70</v>
+      </c>
       <c r="H30" s="22"/>
       <c r="I30" s="22"/>
       <c r="J30" s="22"/>

--- a/Management/PRODUCTION/Production_Task_2017NOV09.xlsx
+++ b/Management/PRODUCTION/Production_Task_2017NOV09.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="199">
   <si>
     <t>Production Task Chart</t>
   </si>
@@ -555,9 +555,6 @@
   </si>
   <si>
     <t>Create Character Super Class Script</t>
-  </si>
-  <si>
-    <t>BK (Pending)</t>
   </si>
   <si>
     <t>CP</t>
@@ -1065,6 +1062,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1089,15 +1104,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1120,15 +1126,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1863,7 +1860,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1933,16 +1930,16 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6914,7 +6911,7 @@
   <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6948,20 +6945,20 @@
       <c r="N1" s="18"/>
     </row>
     <row r="2" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="58"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="39"/>
       <c r="N2" s="18"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
@@ -6984,36 +6981,36 @@
       <c r="N3" s="18"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="41" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="42"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="19"/>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="42"/>
       <c r="N4" s="18"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="41" t="s">
+      <c r="C5" s="44"/>
+      <c r="D5" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="19"/>
       <c r="H5" s="8" t="s">
         <v>26</v>
@@ -7036,15 +7033,15 @@
       <c r="N5" s="18"/>
     </row>
     <row r="6" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="43" t="s">
+      <c r="C6" s="46"/>
+      <c r="D6" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="44"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="50"/>
       <c r="G6" s="19"/>
       <c r="H6" s="16">
         <v>1</v>
@@ -7053,7 +7050,7 @@
         <v>102</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>103</v>
@@ -7082,7 +7079,7 @@
         <v>105</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>106</v>
@@ -7096,15 +7093,15 @@
       <c r="N7" s="18"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="41" t="s">
+      <c r="C8" s="44"/>
+      <c r="D8" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="48"/>
       <c r="G8" s="19"/>
       <c r="H8" s="16">
         <v>3</v>
@@ -7113,7 +7110,7 @@
         <v>108</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>109</v>
@@ -7127,15 +7124,15 @@
       <c r="N8" s="18"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="41" t="s">
+      <c r="C9" s="44"/>
+      <c r="D9" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="42"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="48"/>
       <c r="G9" s="19"/>
       <c r="H9" s="16">
         <v>4</v>
@@ -7144,7 +7141,7 @@
         <v>111</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>112</v>
@@ -7158,15 +7155,15 @@
       <c r="N9" s="18"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="41" t="s">
+      <c r="C10" s="44"/>
+      <c r="D10" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="42"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="48"/>
       <c r="G10" s="19"/>
       <c r="H10" s="16">
         <v>5</v>
@@ -7189,15 +7186,15 @@
       <c r="N10" s="18"/>
     </row>
     <row r="11" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="43" t="s">
+      <c r="C11" s="46"/>
+      <c r="D11" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="43"/>
-      <c r="F11" s="44"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="50"/>
       <c r="G11" s="19"/>
       <c r="H11" s="16">
         <v>6</v>
@@ -7307,13 +7304,13 @@
         <v>156</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K14" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="L14" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="M14" s="10" t="s">
         <v>34</v>
@@ -7360,14 +7357,14 @@
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="19"/>
-      <c r="H16" s="45" t="s">
+      <c r="H16" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="47"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="42"/>
       <c r="N16" s="18"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
@@ -7436,7 +7433,7 @@
         <v>159</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N18" s="18"/>
     </row>
@@ -7471,7 +7468,7 @@
         <v>159</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N19" s="18"/>
     </row>
@@ -7500,7 +7497,7 @@
         <v>159</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N20" s="18"/>
     </row>
@@ -7517,7 +7514,7 @@
         <v>4</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>32</v>
@@ -7529,7 +7526,7 @@
         <v>166</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N21" s="18"/>
     </row>
@@ -7546,16 +7543,16 @@
         <v>5</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>32</v>
       </c>
       <c r="K22" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="L22" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>181</v>
       </c>
       <c r="M22" s="10" t="s">
         <v>34</v>
@@ -7601,13 +7598,13 @@
       <c r="N24" s="18"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="50"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="53"/>
       <c r="G25" s="19"/>
       <c r="H25" s="16">
         <v>8</v>
@@ -7620,11 +7617,11 @@
       <c r="N25" s="18"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B26" s="48"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="50"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="53"/>
       <c r="G26" s="19"/>
       <c r="H26" s="16">
         <v>9</v>
@@ -7637,11 +7634,11 @@
       <c r="N26" s="18"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B27" s="48"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="50"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="53"/>
       <c r="G27" s="19"/>
       <c r="H27" s="16">
         <v>10</v>
@@ -7654,28 +7651,28 @@
       <c r="N27" s="18"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B28" s="48"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="50"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="53"/>
       <c r="G28" s="19"/>
-      <c r="H28" s="45" t="s">
+      <c r="H28" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="47"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="42"/>
       <c r="N28" s="18"/>
     </row>
     <row r="29" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="51"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="53"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="56"/>
       <c r="G29" s="19"/>
       <c r="H29" s="8" t="s">
         <v>26</v>
@@ -7717,10 +7714,10 @@
       <c r="N30" s="18"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="55"/>
+      <c r="C31" s="58"/>
       <c r="D31" s="4">
         <f>SUM(D34,D37,D40,D43)</f>
         <v>14</v>
@@ -7745,13 +7742,13 @@
       <c r="N31" s="18"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="47"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="42"/>
       <c r="G32" s="19"/>
       <c r="H32" s="16">
         <v>3</v>
@@ -7821,13 +7818,13 @@
       <c r="N34" s="18"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="47"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="42"/>
       <c r="G35" s="19"/>
       <c r="H35" s="16">
         <v>6</v>
@@ -7897,13 +7894,13 @@
       <c r="N37" s="18"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="47"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="42"/>
       <c r="G38" s="19"/>
       <c r="H38" s="16">
         <v>9</v>
@@ -7962,24 +7959,24 @@
         <v>0</v>
       </c>
       <c r="G40" s="19"/>
-      <c r="H40" s="45" t="s">
+      <c r="H40" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="47"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="42"/>
       <c r="N40" s="18"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="47"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="42"/>
       <c r="G41" s="19"/>
       <c r="H41" s="8" t="s">
         <v>26</v>
@@ -8246,6 +8243,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="H3:M3"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="H40:M40"/>
@@ -8262,21 +8274,6 @@
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="D11:F11"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
   </mergeCells>
   <conditionalFormatting sqref="E14:E23">
     <cfRule type="duplicateValues" dxfId="16" priority="5"/>
@@ -8307,8 +8304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8552,11 +8549,11 @@
       </c>
       <c r="D11" s="22">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" s="22">
         <f t="shared" ref="E11:E15" si="2">E10-D11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="22">
         <f t="shared" si="1"/>
@@ -8584,7 +8581,7 @@
       </c>
       <c r="D12" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="22">
         <f t="shared" si="2"/>
@@ -8592,11 +8589,11 @@
       </c>
       <c r="F12" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="23">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
@@ -8628,7 +8625,7 @@
       </c>
       <c r="G13" s="23">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
@@ -8660,7 +8657,7 @@
       </c>
       <c r="G14" s="23">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -8692,7 +8689,7 @@
       </c>
       <c r="G15" s="26">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
@@ -9140,14 +9137,18 @@
       <c r="C29" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="D29" s="22"/>
+      <c r="D29" s="22" t="s">
+        <v>95</v>
+      </c>
       <c r="E29" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F29" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G29" s="22"/>
+      <c r="G29" s="22" t="s">
+        <v>70</v>
+      </c>
       <c r="H29" s="22"/>
       <c r="I29" s="22"/>
       <c r="J29" s="22"/>
@@ -9167,7 +9168,7 @@
         <v>139</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>177</v>
+        <v>95</v>
       </c>
       <c r="E30" s="22">
         <v>3</v>
@@ -9178,11 +9179,21 @@
       <c r="G30" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
+      <c r="H30" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I30" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="J30" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="K30" s="22">
+        <v>4</v>
+      </c>
+      <c r="L30" s="22" t="s">
+        <v>95</v>
+      </c>
       <c r="M30" s="23" t="s">
         <v>157</v>
       </c>
@@ -9231,7 +9242,7 @@
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="18"/>
       <c r="B32" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C32" s="22" t="s">
         <v>156</v>
@@ -9264,14 +9275,14 @@
         <v>173</v>
       </c>
       <c r="M32" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N32" s="18"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="18"/>
       <c r="B33" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C33" s="22" t="s">
         <v>156</v>
@@ -9304,14 +9315,14 @@
         <v>173</v>
       </c>
       <c r="M33" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N33" s="18"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="18"/>
       <c r="B34" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C34" s="22" t="s">
         <v>156</v>
@@ -9344,14 +9355,14 @@
         <v>173</v>
       </c>
       <c r="M34" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N34" s="18"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="18"/>
       <c r="B35" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C35" s="22" t="s">
         <v>156</v>
@@ -9384,14 +9395,14 @@
         <v>173</v>
       </c>
       <c r="M35" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N35" s="18"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="18"/>
       <c r="B36" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C36" s="22" t="s">
         <v>156</v>
@@ -9424,14 +9435,14 @@
         <v>173</v>
       </c>
       <c r="M36" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N36" s="18"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="18"/>
       <c r="B37" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C37" s="22" t="s">
         <v>156</v>
@@ -9464,14 +9475,14 @@
         <v>173</v>
       </c>
       <c r="M37" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N37" s="18"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="18"/>
       <c r="B38" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C38" s="22" t="s">
         <v>156</v>
@@ -9504,7 +9515,7 @@
         <v>173</v>
       </c>
       <c r="M38" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N38" s="18"/>
     </row>

--- a/Management/PRODUCTION/Production_Task_2017NOV09.xlsx
+++ b/Management/PRODUCTION/Production_Task_2017NOV09.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repositories\GDC2017Project\Management\PRODUCTION\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="20730" windowHeight="8775" activeTab="2"/>
   </bookViews>
@@ -18,13 +13,13 @@
     <sheet name="Sprint #3 Backlog" sheetId="8" r:id="rId4"/>
     <sheet name="Sprint #4 Backlog" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="274">
   <si>
     <t>Production Task Chart</t>
   </si>
@@ -840,12 +835,18 @@
   </si>
   <si>
     <t>IW</t>
+  </si>
+  <si>
+    <t>PRM-030</t>
+  </si>
+  <si>
+    <t>Complete simple level</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1318,114 +1319,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1460,6 +1353,114 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1651,7 +1652,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1722,7 +1723,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EF0D-4069-B25D-613773EB085E}"/>
             </c:ext>
@@ -1780,7 +1781,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-EF0D-4069-B25D-613773EB085E}"/>
             </c:ext>
@@ -1796,11 +1797,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="192996352"/>
-        <c:axId val="168745728"/>
+        <c:axId val="180806656"/>
+        <c:axId val="156490496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="192996352"/>
+        <c:axId val="180806656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1840,26 +1841,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -1897,7 +1878,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168745728"/>
+        <c:crossAx val="156490496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1905,7 +1886,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168745728"/>
+        <c:axId val="156490496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1959,26 +1940,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2011,7 +1972,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192996352"/>
+        <c:crossAx val="180806656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2056,14 +2017,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2099,7 +2060,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2179,7 +2140,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C612-40A7-9F96-EB4D93577D25}"/>
             </c:ext>
@@ -2228,25 +2189,25 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C612-40A7-9F96-EB4D93577D25}"/>
             </c:ext>
@@ -2262,11 +2223,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="193675776"/>
-        <c:axId val="193462848"/>
+        <c:axId val="181453312"/>
+        <c:axId val="181207616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="193675776"/>
+        <c:axId val="181453312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2298,6 +2259,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2306,26 +2268,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2363,7 +2305,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193462848"/>
+        <c:crossAx val="181207616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2371,7 +2313,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193462848"/>
+        <c:axId val="181207616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2417,6 +2359,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2425,26 +2368,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2477,7 +2400,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193675776"/>
+        <c:crossAx val="181453312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2491,6 +2414,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2522,14 +2446,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2565,7 +2489,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2621,31 +2545,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4E52-438F-B18A-86E2B7D84A8A}"/>
             </c:ext>
@@ -2688,31 +2612,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>29</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4E52-438F-B18A-86E2B7D84A8A}"/>
             </c:ext>
@@ -2728,11 +2652,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="193678336"/>
-        <c:axId val="193464576"/>
+        <c:axId val="181455872"/>
+        <c:axId val="181209344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="193678336"/>
+        <c:axId val="181455872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2764,6 +2688,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2772,26 +2697,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2829,7 +2734,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193464576"/>
+        <c:crossAx val="181209344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2837,7 +2742,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193464576"/>
+        <c:axId val="181209344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2883,6 +2788,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2891,26 +2797,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2943,7 +2829,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193678336"/>
+        <c:crossAx val="181455872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2957,6 +2843,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2988,14 +2875,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3031,7 +2918,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3111,7 +2998,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0FBD-43AF-9F67-32392220AF80}"/>
             </c:ext>
@@ -3178,7 +3065,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0FBD-43AF-9F67-32392220AF80}"/>
             </c:ext>
@@ -3194,11 +3081,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="193731072"/>
-        <c:axId val="193466304"/>
+        <c:axId val="181606912"/>
+        <c:axId val="181211072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="193731072"/>
+        <c:axId val="181606912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3238,26 +3125,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3295,7 +3162,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193466304"/>
+        <c:crossAx val="181211072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3303,7 +3170,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193466304"/>
+        <c:axId val="181211072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3357,26 +3224,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3409,7 +3256,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193731072"/>
+        <c:crossAx val="181606912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3454,14 +3301,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3497,7 +3344,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3577,7 +3424,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D138-4731-867F-4F3C69710087}"/>
             </c:ext>
@@ -3644,7 +3491,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D138-4731-867F-4F3C69710087}"/>
             </c:ext>
@@ -3660,11 +3507,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="194295296"/>
-        <c:axId val="193468032"/>
+        <c:axId val="182302208"/>
+        <c:axId val="181212800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="194295296"/>
+        <c:axId val="182302208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3704,26 +3551,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3761,7 +3588,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193468032"/>
+        <c:crossAx val="181212800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3769,7 +3596,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193468032"/>
+        <c:axId val="181212800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3823,26 +3650,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3875,7 +3682,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194295296"/>
+        <c:crossAx val="182302208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3920,14 +3727,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6697,7 +6504,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{195A0F04-AE03-4B91-8B8F-171802523C49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{195A0F04-AE03-4B91-8B8F-171802523C49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6738,7 +6545,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C031D55E-2B68-4B87-A1AD-203FDFD95A40}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C031D55E-2B68-4B87-A1AD-203FDFD95A40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6779,7 +6586,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0A947F4-F41D-4419-8750-C2850F5873A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E0A947F4-F41D-4419-8750-C2850F5873A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6822,7 +6629,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6257F7BD-97DE-4834-AE08-9D8AF110B902}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6257F7BD-97DE-4834-AE08-9D8AF110B902}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6865,7 +6672,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76C49400-69A8-4DAA-87EA-A71BEE27AB1F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{76C49400-69A8-4DAA-87EA-A71BEE27AB1F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6931,7 +6738,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6964,26 +6771,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7016,23 +6806,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7235,93 +7008,93 @@
       <c r="B1" s="16"/>
     </row>
     <row r="2" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="73"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="75"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="2:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="76"/>
-      <c r="C3" s="58" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="77"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="41"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B4" s="76"/>
-      <c r="C4" s="36" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="36" t="s">
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="77"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="41"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="76"/>
-      <c r="C5" s="39" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="43" t="s">
+      <c r="D5" s="58"/>
+      <c r="E5" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="47" t="s">
+      <c r="F5" s="61"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="77"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="41"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="76"/>
-      <c r="C6" s="39" t="s">
+      <c r="B6" s="40"/>
+      <c r="C6" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="43" t="s">
+      <c r="D6" s="58"/>
+      <c r="E6" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="78"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="42"/>
       <c r="I6" s="31" t="s">
         <v>26</v>
       </c>
@@ -7340,20 +7113,20 @@
       <c r="N6" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="77"/>
+      <c r="O6" s="41"/>
     </row>
     <row r="7" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="76"/>
-      <c r="C7" s="41" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="45" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="45"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="78"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="42"/>
       <c r="I7" s="14">
         <v>1</v>
       </c>
@@ -7372,18 +7145,18 @@
       <c r="N7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="77"/>
+      <c r="O7" s="41"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="76"/>
-      <c r="C8" s="36" t="s">
+      <c r="B8" s="40"/>
+      <c r="C8" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="78"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="42"/>
       <c r="I8" s="14">
         <v>2</v>
       </c>
@@ -7402,20 +7175,20 @@
       <c r="N8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O8" s="77"/>
+      <c r="O8" s="41"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="76"/>
-      <c r="C9" s="39" t="s">
+      <c r="B9" s="40"/>
+      <c r="C9" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="43" t="s">
+      <c r="D9" s="58"/>
+      <c r="E9" s="61" t="s">
         <v>172</v>
       </c>
-      <c r="F9" s="43"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="78"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="42"/>
       <c r="I9" s="14">
         <v>3</v>
       </c>
@@ -7434,20 +7207,20 @@
       <c r="N9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O9" s="77"/>
+      <c r="O9" s="41"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="76"/>
-      <c r="C10" s="39" t="s">
+      <c r="B10" s="40"/>
+      <c r="C10" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="43" t="s">
+      <c r="D10" s="58"/>
+      <c r="E10" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="78"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="42"/>
       <c r="I10" s="14">
         <v>4</v>
       </c>
@@ -7466,20 +7239,20 @@
       <c r="N10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O10" s="77"/>
+      <c r="O10" s="41"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="76"/>
-      <c r="C11" s="39" t="s">
+      <c r="B11" s="40"/>
+      <c r="C11" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="43" t="s">
+      <c r="D11" s="58"/>
+      <c r="E11" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="78"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="42"/>
       <c r="I11" s="14">
         <v>5</v>
       </c>
@@ -7498,20 +7271,20 @@
       <c r="N11" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="O11" s="77"/>
+      <c r="O11" s="41"/>
     </row>
     <row r="12" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="76"/>
-      <c r="C12" s="41" t="s">
+      <c r="B12" s="40"/>
+      <c r="C12" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="45" t="s">
+      <c r="D12" s="60"/>
+      <c r="E12" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="45"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="78"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="42"/>
       <c r="I12" s="14">
         <v>6</v>
       </c>
@@ -7530,18 +7303,18 @@
       <c r="N12" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="O12" s="77"/>
+      <c r="O12" s="41"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="76"/>
-      <c r="C13" s="36" t="s">
+      <c r="B13" s="40"/>
+      <c r="C13" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="78"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="42"/>
       <c r="I13" s="14">
         <v>7</v>
       </c>
@@ -7560,10 +7333,10 @@
       <c r="N13" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="O13" s="77"/>
+      <c r="O13" s="41"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="76"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="5"/>
       <c r="D14" s="32" t="s">
         <v>2</v>
@@ -7577,7 +7350,7 @@
       <c r="G14" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="78"/>
+      <c r="H14" s="42"/>
       <c r="I14" s="14">
         <v>8</v>
       </c>
@@ -7596,10 +7369,10 @@
       <c r="N14" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="O14" s="77"/>
+      <c r="O14" s="41"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="76"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="31">
         <v>1</v>
       </c>
@@ -7615,7 +7388,7 @@
       <c r="G15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="78"/>
+      <c r="H15" s="42"/>
       <c r="I15" s="14">
         <v>9</v>
       </c>
@@ -7634,10 +7407,10 @@
       <c r="N15" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O15" s="77"/>
+      <c r="O15" s="41"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="76"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="31">
         <v>2</v>
       </c>
@@ -7651,7 +7424,7 @@
         <v>93</v>
       </c>
       <c r="G16" s="9"/>
-      <c r="H16" s="78"/>
+      <c r="H16" s="42"/>
       <c r="I16" s="14">
         <v>10</v>
       </c>
@@ -7660,10 +7433,10 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="9"/>
-      <c r="O16" s="77"/>
+      <c r="O16" s="41"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="76"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="31">
         <v>3</v>
       </c>
@@ -7677,19 +7450,19 @@
         <v>94</v>
       </c>
       <c r="G17" s="9"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="47" t="s">
+      <c r="H17" s="42"/>
+      <c r="I17" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="77"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="41"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="76"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="31">
         <v>4</v>
       </c>
@@ -7703,7 +7476,7 @@
         <v>95</v>
       </c>
       <c r="G18" s="9"/>
-      <c r="H18" s="78"/>
+      <c r="H18" s="42"/>
       <c r="I18" s="31" t="s">
         <v>26</v>
       </c>
@@ -7722,10 +7495,10 @@
       <c r="N18" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="O18" s="77"/>
+      <c r="O18" s="41"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="76"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="31">
         <v>5</v>
       </c>
@@ -7739,7 +7512,7 @@
         <v>96</v>
       </c>
       <c r="G19" s="9"/>
-      <c r="H19" s="78"/>
+      <c r="H19" s="42"/>
       <c r="I19" s="14">
         <v>1</v>
       </c>
@@ -7758,10 +7531,10 @@
       <c r="N19" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="O19" s="77"/>
+      <c r="O19" s="41"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="76"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="31">
         <v>6</v>
       </c>
@@ -7775,7 +7548,7 @@
         <v>97</v>
       </c>
       <c r="G20" s="9"/>
-      <c r="H20" s="78"/>
+      <c r="H20" s="42"/>
       <c r="I20" s="14">
         <v>2</v>
       </c>
@@ -7794,10 +7567,10 @@
       <c r="N20" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="O20" s="77"/>
+      <c r="O20" s="41"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="76"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="31">
         <v>7</v>
       </c>
@@ -7805,7 +7578,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="78"/>
+      <c r="H21" s="42"/>
       <c r="I21" s="14">
         <v>3</v>
       </c>
@@ -7824,10 +7597,10 @@
       <c r="N21" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="O21" s="77"/>
+      <c r="O21" s="41"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="76"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="31">
         <v>8</v>
       </c>
@@ -7835,7 +7608,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="78"/>
+      <c r="H22" s="42"/>
       <c r="I22" s="14">
         <v>4</v>
       </c>
@@ -7854,10 +7627,10 @@
       <c r="N22" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="O22" s="77"/>
+      <c r="O22" s="41"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="76"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="31">
         <v>9</v>
       </c>
@@ -7865,7 +7638,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="78"/>
+      <c r="H23" s="42"/>
       <c r="I23" s="14">
         <v>5</v>
       </c>
@@ -7884,10 +7657,10 @@
       <c r="N23" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O23" s="77"/>
+      <c r="O23" s="41"/>
     </row>
     <row r="24" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="76"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="10">
         <v>10</v>
       </c>
@@ -7895,7 +7668,7 @@
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="78"/>
+      <c r="H24" s="42"/>
       <c r="I24" s="14">
         <v>6</v>
       </c>
@@ -7914,18 +7687,18 @@
       <c r="N24" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="O24" s="77"/>
+      <c r="O24" s="41"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="76"/>
-      <c r="C25" s="36" t="s">
+      <c r="B25" s="40"/>
+      <c r="C25" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="78"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="42"/>
       <c r="I25" s="14">
         <v>7</v>
       </c>
@@ -7944,18 +7717,18 @@
       <c r="N25" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="O25" s="77"/>
+      <c r="O25" s="41"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="76"/>
-      <c r="C26" s="50" t="s">
+      <c r="B26" s="40"/>
+      <c r="C26" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="78"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="42"/>
       <c r="I26" s="14">
         <v>8</v>
       </c>
@@ -7974,16 +7747,16 @@
       <c r="N26" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="O26" s="77"/>
+      <c r="O26" s="41"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B27" s="76"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="78"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="42"/>
       <c r="I27" s="14">
         <v>9</v>
       </c>
@@ -7992,16 +7765,16 @@
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="9"/>
-      <c r="O27" s="77"/>
+      <c r="O27" s="41"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="76"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="78"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="42"/>
       <c r="I28" s="14">
         <v>10</v>
       </c>
@@ -8010,34 +7783,34 @@
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="9"/>
-      <c r="O28" s="77"/>
+      <c r="O28" s="41"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="76"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="47" t="s">
+      <c r="B29" s="40"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="77"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="41"/>
     </row>
     <row r="30" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="76"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="78"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="42"/>
       <c r="I30" s="31" t="s">
         <v>26</v>
       </c>
@@ -8056,18 +7829,18 @@
       <c r="N30" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="O30" s="77"/>
+      <c r="O30" s="41"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B31" s="76"/>
-      <c r="C31" s="36" t="s">
+      <c r="B31" s="40"/>
+      <c r="C31" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="78"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="42"/>
       <c r="I31" s="14">
         <v>1</v>
       </c>
@@ -8076,14 +7849,14 @@
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="9"/>
-      <c r="O31" s="77"/>
+      <c r="O31" s="41"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B32" s="76"/>
-      <c r="C32" s="56" t="s">
+      <c r="B32" s="40"/>
+      <c r="C32" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="57"/>
+      <c r="D32" s="72"/>
       <c r="E32" s="4">
         <f>SUM(E35,E38,E41,E44)</f>
         <v>17</v>
@@ -8096,7 +7869,7 @@
         <f>E32-F32</f>
         <v>11</v>
       </c>
-      <c r="H32" s="78"/>
+      <c r="H32" s="42"/>
       <c r="I32" s="14">
         <v>2</v>
       </c>
@@ -8105,18 +7878,18 @@
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="9"/>
-      <c r="O32" s="77"/>
+      <c r="O32" s="41"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B33" s="76"/>
-      <c r="C33" s="47" t="s">
+      <c r="B33" s="40"/>
+      <c r="C33" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="78"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="42"/>
       <c r="I33" s="14">
         <v>3</v>
       </c>
@@ -8125,10 +7898,10 @@
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="9"/>
-      <c r="O33" s="77"/>
+      <c r="O33" s="41"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B34" s="76"/>
+      <c r="B34" s="40"/>
       <c r="C34" s="34" t="s">
         <v>17</v>
       </c>
@@ -8144,7 +7917,7 @@
       <c r="G34" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H34" s="78"/>
+      <c r="H34" s="42"/>
       <c r="I34" s="14">
         <v>4</v>
       </c>
@@ -8153,10 +7926,10 @@
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="9"/>
-      <c r="O34" s="77"/>
+      <c r="O34" s="41"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B35" s="76"/>
+      <c r="B35" s="40"/>
       <c r="C35" s="34" t="s">
         <v>18</v>
       </c>
@@ -8175,7 +7948,7 @@
         <f>E35-F35</f>
         <v>3</v>
       </c>
-      <c r="H35" s="78"/>
+      <c r="H35" s="42"/>
       <c r="I35" s="14">
         <v>5</v>
       </c>
@@ -8184,18 +7957,18 @@
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="9"/>
-      <c r="O35" s="77"/>
+      <c r="O35" s="41"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B36" s="76"/>
-      <c r="C36" s="47" t="s">
+      <c r="B36" s="40"/>
+      <c r="C36" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="78"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="42"/>
       <c r="I36" s="14">
         <v>6</v>
       </c>
@@ -8204,10 +7977,10 @@
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="9"/>
-      <c r="O36" s="77"/>
+      <c r="O36" s="41"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B37" s="76"/>
+      <c r="B37" s="40"/>
       <c r="C37" s="34" t="s">
         <v>17</v>
       </c>
@@ -8223,7 +7996,7 @@
       <c r="G37" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H37" s="78"/>
+      <c r="H37" s="42"/>
       <c r="I37" s="14">
         <v>7</v>
       </c>
@@ -8232,10 +8005,10 @@
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="9"/>
-      <c r="O37" s="77"/>
+      <c r="O37" s="41"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B38" s="76"/>
+      <c r="B38" s="40"/>
       <c r="C38" s="34" t="s">
         <v>18</v>
       </c>
@@ -8254,7 +8027,7 @@
         <f>E38-F38</f>
         <v>8</v>
       </c>
-      <c r="H38" s="78"/>
+      <c r="H38" s="42"/>
       <c r="I38" s="14">
         <v>8</v>
       </c>
@@ -8263,18 +8036,18 @@
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="9"/>
-      <c r="O38" s="77"/>
+      <c r="O38" s="41"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B39" s="76"/>
-      <c r="C39" s="47" t="s">
+      <c r="B39" s="40"/>
+      <c r="C39" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="78"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="42"/>
       <c r="I39" s="14">
         <v>9</v>
       </c>
@@ -8283,10 +8056,10 @@
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="9"/>
-      <c r="O39" s="77"/>
+      <c r="O39" s="41"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B40" s="76"/>
+      <c r="B40" s="40"/>
       <c r="C40" s="34" t="s">
         <v>17</v>
       </c>
@@ -8302,7 +8075,7 @@
       <c r="G40" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H40" s="78"/>
+      <c r="H40" s="42"/>
       <c r="I40" s="14">
         <v>10</v>
       </c>
@@ -8311,10 +8084,10 @@
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="9"/>
-      <c r="O40" s="77"/>
+      <c r="O40" s="41"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B41" s="76"/>
+      <c r="B41" s="40"/>
       <c r="C41" s="34" t="s">
         <v>18</v>
       </c>
@@ -8333,27 +8106,27 @@
         <f>E41-F41</f>
         <v>0</v>
       </c>
-      <c r="H41" s="78"/>
-      <c r="I41" s="47" t="s">
+      <c r="H41" s="42"/>
+      <c r="I41" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="48"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="48"/>
-      <c r="M41" s="48"/>
-      <c r="N41" s="49"/>
-      <c r="O41" s="77"/>
+      <c r="J41" s="55"/>
+      <c r="K41" s="55"/>
+      <c r="L41" s="55"/>
+      <c r="M41" s="55"/>
+      <c r="N41" s="56"/>
+      <c r="O41" s="41"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B42" s="76"/>
-      <c r="C42" s="47" t="s">
+      <c r="B42" s="40"/>
+      <c r="C42" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="78"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="42"/>
       <c r="I42" s="31" t="s">
         <v>26</v>
       </c>
@@ -8372,10 +8145,10 @@
       <c r="N42" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="O42" s="77"/>
+      <c r="O42" s="41"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B43" s="76"/>
+      <c r="B43" s="40"/>
       <c r="C43" s="34" t="s">
         <v>17</v>
       </c>
@@ -8391,7 +8164,7 @@
       <c r="G43" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H43" s="78"/>
+      <c r="H43" s="42"/>
       <c r="I43" s="14">
         <v>1</v>
       </c>
@@ -8400,10 +8173,10 @@
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="9"/>
-      <c r="O43" s="77"/>
+      <c r="O43" s="41"/>
     </row>
     <row r="44" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="76"/>
+      <c r="B44" s="40"/>
       <c r="C44" s="13" t="s">
         <v>18</v>
       </c>
@@ -8422,7 +8195,7 @@
         <f>E44-F44</f>
         <v>0</v>
       </c>
-      <c r="H44" s="78"/>
+      <c r="H44" s="42"/>
       <c r="I44" s="14">
         <v>2</v>
       </c>
@@ -8431,16 +8204,16 @@
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
       <c r="N44" s="9"/>
-      <c r="O44" s="77"/>
+      <c r="O44" s="41"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B45" s="76"/>
-      <c r="C45" s="79"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="79"/>
-      <c r="F45" s="79"/>
-      <c r="G45" s="79"/>
-      <c r="H45" s="78"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="42"/>
       <c r="I45" s="14">
         <v>3</v>
       </c>
@@ -8449,16 +8222,16 @@
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="9"/>
-      <c r="O45" s="77"/>
+      <c r="O45" s="41"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B46" s="76"/>
-      <c r="C46" s="79"/>
-      <c r="D46" s="79"/>
-      <c r="E46" s="79"/>
-      <c r="F46" s="79"/>
-      <c r="G46" s="79"/>
-      <c r="H46" s="78"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="42"/>
       <c r="I46" s="14">
         <v>4</v>
       </c>
@@ -8467,16 +8240,16 @@
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
       <c r="N46" s="9"/>
-      <c r="O46" s="77"/>
+      <c r="O46" s="41"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B47" s="76"/>
-      <c r="C47" s="79"/>
-      <c r="D47" s="79"/>
-      <c r="E47" s="79"/>
-      <c r="F47" s="79"/>
-      <c r="G47" s="79"/>
-      <c r="H47" s="78"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="42"/>
       <c r="I47" s="14">
         <v>5</v>
       </c>
@@ -8485,16 +8258,16 @@
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="9"/>
-      <c r="O47" s="77"/>
+      <c r="O47" s="41"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B48" s="76"/>
-      <c r="C48" s="79"/>
-      <c r="D48" s="79"/>
-      <c r="E48" s="79"/>
-      <c r="F48" s="79"/>
-      <c r="G48" s="79"/>
-      <c r="H48" s="78"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="42"/>
       <c r="I48" s="14">
         <v>6</v>
       </c>
@@ -8503,16 +8276,16 @@
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="9"/>
-      <c r="O48" s="77"/>
+      <c r="O48" s="41"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B49" s="76"/>
-      <c r="C49" s="79"/>
-      <c r="D49" s="79"/>
-      <c r="E49" s="79"/>
-      <c r="F49" s="79"/>
-      <c r="G49" s="79"/>
-      <c r="H49" s="78"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="42"/>
       <c r="I49" s="14">
         <v>7</v>
       </c>
@@ -8521,16 +8294,16 @@
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="9"/>
-      <c r="O49" s="77"/>
+      <c r="O49" s="41"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B50" s="76"/>
-      <c r="C50" s="79"/>
-      <c r="D50" s="79"/>
-      <c r="E50" s="79"/>
-      <c r="F50" s="79"/>
-      <c r="G50" s="79"/>
-      <c r="H50" s="78"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="42"/>
       <c r="I50" s="14">
         <v>8</v>
       </c>
@@ -8539,16 +8312,16 @@
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="9"/>
-      <c r="O50" s="77"/>
+      <c r="O50" s="41"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B51" s="76"/>
-      <c r="C51" s="79"/>
-      <c r="D51" s="79"/>
-      <c r="E51" s="79"/>
-      <c r="F51" s="79"/>
-      <c r="G51" s="79"/>
-      <c r="H51" s="78"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="42"/>
       <c r="I51" s="14">
         <v>9</v>
       </c>
@@ -8557,16 +8330,16 @@
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
       <c r="N51" s="9"/>
-      <c r="O51" s="77"/>
+      <c r="O51" s="41"/>
     </row>
     <row r="52" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="76"/>
-      <c r="C52" s="79"/>
-      <c r="D52" s="79"/>
-      <c r="E52" s="79"/>
-      <c r="F52" s="79"/>
-      <c r="G52" s="79"/>
-      <c r="H52" s="78"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="42"/>
       <c r="I52" s="15">
         <v>10</v>
       </c>
@@ -8575,170 +8348,185 @@
       <c r="L52" s="11"/>
       <c r="M52" s="11"/>
       <c r="N52" s="12"/>
-      <c r="O52" s="77"/>
+      <c r="O52" s="41"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B53" s="76"/>
-      <c r="C53" s="79"/>
-      <c r="D53" s="79"/>
-      <c r="E53" s="79"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="79"/>
-      <c r="H53" s="80"/>
-      <c r="I53" s="80"/>
-      <c r="J53" s="80"/>
-      <c r="K53" s="80"/>
-      <c r="L53" s="80"/>
-      <c r="M53" s="80"/>
-      <c r="N53" s="80"/>
-      <c r="O53" s="77"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="44"/>
+      <c r="M53" s="44"/>
+      <c r="N53" s="44"/>
+      <c r="O53" s="41"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B54" s="76"/>
-      <c r="C54" s="79"/>
-      <c r="D54" s="79"/>
-      <c r="E54" s="79"/>
-      <c r="F54" s="79"/>
-      <c r="G54" s="79"/>
-      <c r="H54" s="80"/>
-      <c r="I54" s="80"/>
-      <c r="J54" s="80"/>
-      <c r="K54" s="80"/>
-      <c r="L54" s="80"/>
-      <c r="M54" s="80"/>
-      <c r="N54" s="80"/>
-      <c r="O54" s="77"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="44"/>
+      <c r="J54" s="44"/>
+      <c r="K54" s="44"/>
+      <c r="L54" s="44"/>
+      <c r="M54" s="44"/>
+      <c r="N54" s="44"/>
+      <c r="O54" s="41"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B55" s="76"/>
-      <c r="C55" s="79"/>
-      <c r="D55" s="79"/>
-      <c r="E55" s="79"/>
-      <c r="F55" s="79"/>
-      <c r="G55" s="79"/>
-      <c r="H55" s="80"/>
-      <c r="I55" s="80"/>
-      <c r="J55" s="80"/>
-      <c r="K55" s="80"/>
-      <c r="L55" s="80"/>
-      <c r="M55" s="80"/>
-      <c r="N55" s="80"/>
-      <c r="O55" s="77"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="44"/>
+      <c r="J55" s="44"/>
+      <c r="K55" s="44"/>
+      <c r="L55" s="44"/>
+      <c r="M55" s="44"/>
+      <c r="N55" s="44"/>
+      <c r="O55" s="41"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B56" s="76"/>
-      <c r="C56" s="79"/>
-      <c r="D56" s="79"/>
-      <c r="E56" s="79"/>
-      <c r="F56" s="79"/>
-      <c r="G56" s="79"/>
-      <c r="H56" s="80"/>
-      <c r="I56" s="80"/>
-      <c r="J56" s="80"/>
-      <c r="K56" s="80"/>
-      <c r="L56" s="80"/>
-      <c r="M56" s="80"/>
-      <c r="N56" s="80"/>
-      <c r="O56" s="77"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="44"/>
+      <c r="K56" s="44"/>
+      <c r="L56" s="44"/>
+      <c r="M56" s="44"/>
+      <c r="N56" s="44"/>
+      <c r="O56" s="41"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B57" s="76"/>
-      <c r="C57" s="79"/>
-      <c r="D57" s="79"/>
-      <c r="E57" s="79"/>
-      <c r="F57" s="79"/>
-      <c r="G57" s="79"/>
-      <c r="H57" s="80"/>
-      <c r="I57" s="80"/>
-      <c r="J57" s="80"/>
-      <c r="K57" s="80"/>
-      <c r="L57" s="80"/>
-      <c r="M57" s="80"/>
-      <c r="N57" s="80"/>
-      <c r="O57" s="77"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="44"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="44"/>
+      <c r="L57" s="44"/>
+      <c r="M57" s="44"/>
+      <c r="N57" s="44"/>
+      <c r="O57" s="41"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B58" s="76"/>
-      <c r="C58" s="79"/>
-      <c r="D58" s="79"/>
-      <c r="E58" s="79"/>
-      <c r="F58" s="79"/>
-      <c r="G58" s="79"/>
-      <c r="H58" s="80"/>
-      <c r="I58" s="80"/>
-      <c r="J58" s="80"/>
-      <c r="K58" s="80"/>
-      <c r="L58" s="80"/>
-      <c r="M58" s="80"/>
-      <c r="N58" s="80"/>
-      <c r="O58" s="77"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="44"/>
+      <c r="K58" s="44"/>
+      <c r="L58" s="44"/>
+      <c r="M58" s="44"/>
+      <c r="N58" s="44"/>
+      <c r="O58" s="41"/>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B59" s="76"/>
-      <c r="C59" s="79"/>
-      <c r="D59" s="79"/>
-      <c r="E59" s="79"/>
-      <c r="F59" s="79"/>
-      <c r="G59" s="79"/>
-      <c r="H59" s="80"/>
-      <c r="I59" s="80"/>
-      <c r="J59" s="80"/>
-      <c r="K59" s="80"/>
-      <c r="L59" s="80"/>
-      <c r="M59" s="80"/>
-      <c r="N59" s="80"/>
-      <c r="O59" s="77"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="44"/>
+      <c r="J59" s="44"/>
+      <c r="K59" s="44"/>
+      <c r="L59" s="44"/>
+      <c r="M59" s="44"/>
+      <c r="N59" s="44"/>
+      <c r="O59" s="41"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B60" s="76"/>
-      <c r="C60" s="79"/>
-      <c r="D60" s="79"/>
-      <c r="E60" s="79"/>
-      <c r="F60" s="79"/>
-      <c r="G60" s="79"/>
-      <c r="H60" s="80"/>
-      <c r="I60" s="80"/>
-      <c r="J60" s="80"/>
-      <c r="K60" s="80"/>
-      <c r="L60" s="80"/>
-      <c r="M60" s="80"/>
-      <c r="N60" s="80"/>
-      <c r="O60" s="77"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="44"/>
+      <c r="J60" s="44"/>
+      <c r="K60" s="44"/>
+      <c r="L60" s="44"/>
+      <c r="M60" s="44"/>
+      <c r="N60" s="44"/>
+      <c r="O60" s="41"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B61" s="76"/>
-      <c r="C61" s="79"/>
-      <c r="D61" s="79"/>
-      <c r="E61" s="79"/>
-      <c r="F61" s="79"/>
-      <c r="G61" s="79"/>
-      <c r="H61" s="80"/>
-      <c r="I61" s="80"/>
-      <c r="J61" s="80"/>
-      <c r="K61" s="80"/>
-      <c r="L61" s="80"/>
-      <c r="M61" s="80"/>
-      <c r="N61" s="80"/>
-      <c r="O61" s="77"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="44"/>
+      <c r="J61" s="44"/>
+      <c r="K61" s="44"/>
+      <c r="L61" s="44"/>
+      <c r="M61" s="44"/>
+      <c r="N61" s="44"/>
+      <c r="O61" s="41"/>
     </row>
     <row r="62" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="81"/>
-      <c r="C62" s="82"/>
-      <c r="D62" s="82"/>
-      <c r="E62" s="82"/>
-      <c r="F62" s="82"/>
-      <c r="G62" s="82"/>
-      <c r="H62" s="82"/>
-      <c r="I62" s="82"/>
-      <c r="J62" s="82"/>
-      <c r="K62" s="82"/>
-      <c r="L62" s="82"/>
-      <c r="M62" s="82"/>
-      <c r="N62" s="82"/>
-      <c r="O62" s="83"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="46"/>
+      <c r="E62" s="46"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="46"/>
+      <c r="J62" s="46"/>
+      <c r="K62" s="46"/>
+      <c r="L62" s="46"/>
+      <c r="M62" s="46"/>
+      <c r="N62" s="46"/>
+      <c r="O62" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C32:D32"/>
     <mergeCell ref="I4:N4"/>
     <mergeCell ref="C3:N3"/>
     <mergeCell ref="I41:N41"/>
@@ -8755,21 +8543,6 @@
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="E12:G12"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
   </mergeCells>
   <conditionalFormatting sqref="F15:F24">
     <cfRule type="duplicateValues" dxfId="16" priority="5"/>
@@ -8800,8 +8573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8831,28 +8604,28 @@
     </row>
     <row r="2" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="67"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="79"/>
       <c r="N2" s="16"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="38"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
@@ -8927,14 +8700,14 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="38"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="50"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
@@ -9053,11 +8826,11 @@
       </c>
       <c r="F11" s="19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G11" s="20">
         <f t="shared" ref="G11:G15" si="3">G10-F11</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
@@ -9089,7 +8862,7 @@
       </c>
       <c r="G12" s="20">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
@@ -9121,7 +8894,7 @@
       </c>
       <c r="G13" s="20">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
@@ -9153,7 +8926,7 @@
       </c>
       <c r="G14" s="20">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
@@ -9181,11 +8954,11 @@
       </c>
       <c r="F15" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="23">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
@@ -9197,38 +8970,38 @@
     </row>
     <row r="16" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="71"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="83"/>
       <c r="N16" s="16"/>
     </row>
     <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="63"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="75"/>
       <c r="N17" s="16"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -9491,7 +9264,9 @@
       <c r="G24" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="H24" s="19"/>
+      <c r="H24" s="19" t="s">
+        <v>70</v>
+      </c>
       <c r="I24" s="19"/>
       <c r="J24" s="19"/>
       <c r="K24" s="19"/>
@@ -9521,11 +9296,21 @@
       <c r="G25" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
+      <c r="H25" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="K25" s="19">
+        <v>3</v>
+      </c>
+      <c r="L25" s="19" t="s">
+        <v>93</v>
+      </c>
       <c r="M25" s="20" t="s">
         <v>150</v>
       </c>
@@ -9551,11 +9336,21 @@
       <c r="G26" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
+      <c r="H26" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="K26" s="19">
+        <v>3</v>
+      </c>
+      <c r="L26" s="19" t="s">
+        <v>93</v>
+      </c>
       <c r="M26" s="20" t="s">
         <v>151</v>
       </c>
@@ -9570,7 +9365,7 @@
         <v>116</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E27" s="19">
         <v>3</v>
@@ -9581,11 +9376,21 @@
       <c r="G27" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
+      <c r="H27" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="K27" s="19">
+        <v>3</v>
+      </c>
+      <c r="L27" s="19" t="s">
+        <v>94</v>
+      </c>
       <c r="M27" s="20" t="s">
         <v>149</v>
       </c>
@@ -9651,11 +9456,21 @@
       <c r="G29" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
+      <c r="H29" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="K29" s="19">
+        <v>7</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>95</v>
+      </c>
       <c r="M29" s="20" t="s">
         <v>153</v>
       </c>
@@ -11352,8 +11167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11383,28 +11198,28 @@
     </row>
     <row r="2" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="67"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="79"/>
       <c r="N2" s="16"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="38"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
@@ -11479,14 +11294,14 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="38"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="50"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
@@ -11533,19 +11348,19 @@
       </c>
       <c r="D9" s="19">
         <f>COUNTIF($E$19:$E$118,B9)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E9" s="19">
         <f>COUNTA(B19:B118)-D9</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F9" s="19">
         <f>COUNTIFS($K$19:$K$118,B9,$J$19:$J$118,"O")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" s="20">
         <f>COUNTA(B19:B118)-F9</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
@@ -11565,11 +11380,11 @@
       </c>
       <c r="D10" s="19">
         <f t="shared" ref="D10:D15" si="0">COUNTIF($E$19:$E$118,B10)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E10" s="19">
         <f>E9-D10</f>
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F10" s="19">
         <f t="shared" ref="F10:F15" si="1">COUNTIFS($K$19:$K$118,B10,$J$19:$J$118,"O")</f>
@@ -11577,7 +11392,7 @@
       </c>
       <c r="G10" s="20">
         <f>G9-F10</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
@@ -11601,7 +11416,7 @@
       </c>
       <c r="E11" s="19">
         <f t="shared" ref="E11:E15" si="2">E10-D11</f>
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F11" s="19">
         <f t="shared" si="1"/>
@@ -11609,7 +11424,7 @@
       </c>
       <c r="G11" s="20">
         <f t="shared" ref="G11:G15" si="3">G10-F11</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
@@ -11629,11 +11444,11 @@
       </c>
       <c r="D12" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E12" s="19">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="F12" s="19">
         <f t="shared" si="1"/>
@@ -11641,7 +11456,7 @@
       </c>
       <c r="G12" s="20">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
@@ -11665,7 +11480,7 @@
       </c>
       <c r="E13" s="19">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="F13" s="19">
         <f t="shared" si="1"/>
@@ -11673,7 +11488,7 @@
       </c>
       <c r="G13" s="20">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
@@ -11697,7 +11512,7 @@
       </c>
       <c r="E14" s="19">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="F14" s="19">
         <f t="shared" si="1"/>
@@ -11705,7 +11520,7 @@
       </c>
       <c r="G14" s="20">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
@@ -11725,11 +11540,11 @@
       </c>
       <c r="D15" s="22">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="22">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F15" s="22">
         <f t="shared" si="1"/>
@@ -11737,7 +11552,7 @@
       </c>
       <c r="G15" s="23">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
@@ -11749,38 +11564,38 @@
     </row>
     <row r="16" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="71"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="83"/>
       <c r="N16" s="16"/>
     </row>
     <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="63"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="75"/>
       <c r="N17" s="16"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -11850,9 +11665,15 @@
       <c r="I19" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
+      <c r="J19" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="K19" s="19">
+        <v>1</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>173</v>
+      </c>
       <c r="M19" s="20" t="s">
         <v>206</v>
       </c>
@@ -11885,9 +11706,15 @@
       <c r="I20" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
+      <c r="J20" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="K20" s="19">
+        <v>1</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>173</v>
+      </c>
       <c r="M20" s="20" t="s">
         <v>208</v>
       </c>
@@ -11988,8 +11815,12 @@
       <c r="C24" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
+      <c r="D24" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="19">
+        <v>4</v>
+      </c>
       <c r="F24" s="19" t="str">
         <f t="shared" si="4"/>
         <v>O</v>
@@ -12013,8 +11844,12 @@
       <c r="C25" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
+      <c r="D25" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="19">
+        <v>4</v>
+      </c>
       <c r="F25" s="19" t="str">
         <f t="shared" si="4"/>
         <v>O</v>
@@ -12038,8 +11873,12 @@
       <c r="C26" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
+      <c r="D26" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="19">
+        <v>4</v>
+      </c>
       <c r="F26" s="19" t="str">
         <f t="shared" si="4"/>
         <v>O</v>
@@ -12063,8 +11902,12 @@
       <c r="C27" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
+      <c r="D27" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="19">
+        <v>4</v>
+      </c>
       <c r="F27" s="19" t="str">
         <f t="shared" si="4"/>
         <v>O</v>
@@ -12088,8 +11931,12 @@
       <c r="C28" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
+      <c r="D28" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="19">
+        <v>4</v>
+      </c>
       <c r="F28" s="19" t="str">
         <f t="shared" si="4"/>
         <v>O</v>
@@ -12113,8 +11960,12 @@
       <c r="C29" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
+      <c r="D29" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="19">
+        <v>4</v>
+      </c>
       <c r="F29" s="19" t="str">
         <f t="shared" si="4"/>
         <v>O</v>
@@ -12138,8 +11989,12 @@
       <c r="C30" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
+      <c r="D30" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="19">
+        <v>4</v>
+      </c>
       <c r="F30" s="19" t="str">
         <f t="shared" si="4"/>
         <v>O</v>
@@ -12163,8 +12018,12 @@
       <c r="C31" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
+      <c r="D31" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="19">
+        <v>4</v>
+      </c>
       <c r="F31" s="19" t="str">
         <f t="shared" si="4"/>
         <v>O</v>
@@ -12181,7 +12040,7 @@
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
       <c r="L31" s="19"/>
-      <c r="M31" s="72" t="s">
+      <c r="M31" s="36" t="s">
         <v>225</v>
       </c>
       <c r="N31" s="16"/>
@@ -12194,8 +12053,12 @@
       <c r="C32" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
+      <c r="D32" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="19">
+        <v>2</v>
+      </c>
       <c r="F32" s="19" t="str">
         <f t="shared" si="4"/>
         <v>O</v>
@@ -12225,8 +12088,12 @@
       <c r="C33" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
+      <c r="D33" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="19">
+        <v>2</v>
+      </c>
       <c r="F33" s="19" t="str">
         <f t="shared" si="4"/>
         <v>O</v>
@@ -12250,8 +12117,12 @@
       <c r="C34" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
+      <c r="D34" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" s="19">
+        <v>2</v>
+      </c>
       <c r="F34" s="19" t="str">
         <f t="shared" si="4"/>
         <v>O</v>
@@ -12275,8 +12146,12 @@
       <c r="C35" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
+      <c r="D35" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="19">
+        <v>2</v>
+      </c>
       <c r="F35" s="19" t="str">
         <f t="shared" si="4"/>
         <v>O</v>
@@ -12300,8 +12175,12 @@
       <c r="C36" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
+      <c r="D36" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="19">
+        <v>2</v>
+      </c>
       <c r="F36" s="19" t="str">
         <f t="shared" si="4"/>
         <v>O</v>
@@ -12325,8 +12204,12 @@
       <c r="C37" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
+      <c r="D37" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" s="19">
+        <v>2</v>
+      </c>
       <c r="F37" s="19" t="str">
         <f t="shared" si="4"/>
         <v>O</v>
@@ -12350,8 +12233,12 @@
       <c r="C38" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
+      <c r="D38" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" s="19">
+        <v>4</v>
+      </c>
       <c r="F38" s="19" t="str">
         <f t="shared" si="4"/>
         <v>O</v>
@@ -12375,8 +12262,12 @@
       <c r="C39" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
+      <c r="D39" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" s="19">
+        <v>4</v>
+      </c>
       <c r="F39" s="19" t="str">
         <f t="shared" si="4"/>
         <v>O</v>
@@ -12400,8 +12291,12 @@
       <c r="C40" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
+      <c r="D40" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" s="19">
+        <v>4</v>
+      </c>
       <c r="F40" s="19" t="str">
         <f t="shared" si="4"/>
         <v>O</v>
@@ -12425,8 +12320,12 @@
       <c r="C41" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
+      <c r="D41" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E41" s="19">
+        <v>1</v>
+      </c>
       <c r="F41" s="19" t="str">
         <f t="shared" si="4"/>
         <v>O</v>
@@ -12450,8 +12349,12 @@
       <c r="C42" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
+      <c r="D42" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" s="19">
+        <v>4</v>
+      </c>
       <c r="F42" s="19" t="str">
         <f t="shared" si="4"/>
         <v>O</v>
@@ -12475,8 +12378,12 @@
       <c r="C43" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
+      <c r="D43" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43" s="19">
+        <v>1</v>
+      </c>
       <c r="F43" s="19" t="str">
         <f t="shared" si="4"/>
         <v>O</v>
@@ -12500,8 +12407,12 @@
       <c r="C44" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
+      <c r="D44" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E44" s="19">
+        <v>1</v>
+      </c>
       <c r="F44" s="19" t="str">
         <f t="shared" si="4"/>
         <v>O</v>
@@ -12525,8 +12436,12 @@
       <c r="C45" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
+      <c r="D45" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45" s="19">
+        <v>1</v>
+      </c>
       <c r="F45" s="19" t="str">
         <f t="shared" si="4"/>
         <v>O</v>
@@ -12550,8 +12465,12 @@
       <c r="C46" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
+      <c r="D46" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E46" s="19">
+        <v>7</v>
+      </c>
       <c r="F46" s="19" t="str">
         <f t="shared" si="4"/>
         <v>O</v>
@@ -12568,7 +12487,7 @@
       <c r="J46" s="19"/>
       <c r="K46" s="19"/>
       <c r="L46" s="19"/>
-      <c r="M46" s="72" t="s">
+      <c r="M46" s="36" t="s">
         <v>268</v>
       </c>
       <c r="N46" s="16"/>
@@ -12604,13 +12523,21 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="16"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
+      <c r="B48" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" s="19">
+        <v>1</v>
+      </c>
       <c r="F48" s="19" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>O</v>
       </c>
       <c r="G48" s="19"/>
       <c r="H48" s="19"/>
@@ -12618,7 +12545,9 @@
       <c r="J48" s="19"/>
       <c r="K48" s="19"/>
       <c r="L48" s="19"/>
-      <c r="M48" s="20"/>
+      <c r="M48" s="20" t="s">
+        <v>273</v>
+      </c>
       <c r="N48" s="16"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
@@ -14034,28 +13963,28 @@
     </row>
     <row r="2" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="67"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="79"/>
       <c r="N2" s="16"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="38"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
@@ -14130,14 +14059,14 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="38"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="50"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
@@ -14400,38 +14329,38 @@
     </row>
     <row r="16" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="71"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="83"/>
       <c r="N16" s="16"/>
     </row>
     <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="63"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="75"/>
       <c r="N17" s="16"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -16232,28 +16161,28 @@
     </row>
     <row r="2" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="67"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="79"/>
       <c r="N2" s="16"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="38"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
@@ -16328,14 +16257,14 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="38"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="50"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
@@ -16598,38 +16527,38 @@
     </row>
     <row r="16" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="71"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="83"/>
       <c r="N16" s="16"/>
     </row>
     <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="63"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="75"/>
       <c r="N17" s="16"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
